--- a/src/test/resources/dataFiles/SepsisPatientData.xlsx
+++ b/src/test/resources/dataFiles/SepsisPatientData.xlsx
@@ -127,7 +127,7 @@
     <t>Female</t>
   </si>
   <si>
-    <t>11/23/2001</t>
+    <t>01/20/2022</t>
   </si>
   <si>
     <t>and.jade@gmail.com</t>
@@ -154,7 +154,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>11/01/2000</t>
+    <t>11/01/2020</t>
   </si>
   <si>
     <t>sa123@gmail.com</t>
@@ -166,7 +166,7 @@
     <t>Robert</t>
   </si>
   <si>
-    <t>01/15/2024</t>
+    <t>12/31/2023</t>
   </si>
   <si>
     <t>mrob@gmail.com</t>
@@ -240,9 +240,6 @@
     <t>numpyninjaworkforce@gmail.com</t>
   </si>
   <si>
-    <t>Shravanthi.gvs@gmail.com</t>
-  </si>
-  <si>
     <t>100/80</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
     <t>Jade</t>
   </si>
   <si>
+    <t>11/23/2001</t>
+  </si>
+  <si>
     <t>10/18/2016</t>
   </si>
   <si>
@@ -298,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -329,6 +329,11 @@
       <u val="single"/>
       <sz val="8"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -456,7 +461,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -491,6 +496,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -532,6 +540,7 @@
       <rgbColor rgb="ff949494"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff1f1f1f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1607,13 +1616,13 @@
     <col min="3" max="3" width="6.85156" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1719" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.8516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1719" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.8516" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6719" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6719" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
@@ -1905,7 +1914,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="7">
-        <v>8164595432</v>
+        <v>8174595432</v>
       </c>
       <c r="F5" t="s" s="6">
         <v>48</v>
@@ -1971,7 +1980,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="7">
-        <v>8168539533</v>
+        <v>8158539533</v>
       </c>
       <c r="F6" t="s" s="6">
         <v>52</v>
@@ -2037,7 +2046,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="7">
-        <v>8156425997</v>
+        <v>8186425997</v>
       </c>
       <c r="F7" t="s" s="6">
         <v>60</v>
@@ -2179,10 +2188,10 @@
       <c r="G9" s="11">
         <v>5126938475</v>
       </c>
-      <c r="H9" t="s" s="10">
-        <v>73</v>
+      <c r="H9" t="s" s="12">
+        <v>72</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="13"/>
       <c r="J9" t="s" s="6">
         <v>24</v>
       </c>
@@ -2202,7 +2211,7 @@
         <v>16</v>
       </c>
       <c r="P9" t="s" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q9" t="s" s="6">
         <v>56</v>
@@ -2213,30 +2222,30 @@
       <c r="S9" s="11">
         <v>6000</v>
       </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="10">
         <v>37</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="11">
         <v>5126485641</v>
@@ -2247,10 +2256,10 @@
       <c r="G10" s="11">
         <v>5126938476</v>
       </c>
-      <c r="H10" t="s" s="10">
-        <v>73</v>
+      <c r="H10" t="s" s="12">
+        <v>72</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="13"/>
       <c r="J10" t="s" s="6">
         <v>40</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="P10" t="s" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q10" t="s" s="6">
         <v>28</v>
@@ -2281,17 +2290,17 @@
       <c r="S10" s="11">
         <v>8000</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="6">
@@ -2304,7 +2313,7 @@
         <v>37</v>
       </c>
       <c r="D11" t="s" s="6">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7">
         <v>8156425995</v>
@@ -2315,8 +2324,8 @@
       <c r="G11" s="7">
         <v>8648527456</v>
       </c>
-      <c r="H11" t="s" s="10">
-        <v>73</v>
+      <c r="H11" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" t="s" s="6">
@@ -2338,7 +2347,7 @@
         <v>25</v>
       </c>
       <c r="P11" t="s" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s" s="6">
         <v>56</v>
@@ -2372,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="7">
         <v>6196459557</v>
@@ -2383,8 +2392,8 @@
       <c r="G12" s="7">
         <v>6154528972</v>
       </c>
-      <c r="H12" t="s" s="10">
-        <v>73</v>
+      <c r="H12" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" t="s" s="6">
@@ -2440,7 +2449,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="7">
         <v>6188539536</v>
@@ -2451,8 +2460,8 @@
       <c r="G13" s="7">
         <v>6132456547</v>
       </c>
-      <c r="H13" t="s" s="10">
-        <v>73</v>
+      <c r="H13" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" t="s" s="6">
@@ -2502,13 +2511,13 @@
         <v>35</v>
       </c>
       <c r="B14" t="s" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s" s="6">
         <v>37</v>
       </c>
       <c r="D14" t="s" s="6">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E14" s="7">
         <v>6154628993</v>
@@ -2519,8 +2528,8 @@
       <c r="G14" s="7">
         <v>8195642314</v>
       </c>
-      <c r="H14" t="s" s="10">
-        <v>73</v>
+      <c r="H14" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" t="s" s="6">
@@ -2587,8 +2596,8 @@
       <c r="G15" s="7">
         <v>5148647233</v>
       </c>
-      <c r="H15" t="s" s="10">
-        <v>73</v>
+      <c r="H15" t="s" s="12">
+        <v>72</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" t="s" s="6">
@@ -2655,10 +2664,10 @@
       <c r="G16" s="7">
         <v>6154528971</v>
       </c>
-      <c r="H16" t="s" s="10">
-        <v>73</v>
+      <c r="H16" t="s" s="12">
+        <v>72</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="13"/>
       <c r="J16" t="s" s="6">
         <v>40</v>
       </c>
@@ -2702,25 +2711,25 @@
       <c r="AD16" s="4"/>
     </row>
     <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -2737,7 +2746,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2769,7 +2778,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2801,7 +2810,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2833,7 +2842,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2865,7 +2874,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2897,7 +2906,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="17"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2929,7 +2938,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2961,7 +2970,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2993,7 +3002,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -3025,7 +3034,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="17"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -3057,7 +3066,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3089,7 +3098,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -3121,7 +3130,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="17"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3153,7 +3162,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="17"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -3185,7 +3194,7 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="17"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -3217,7 +3226,7 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="17"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -3249,7 +3258,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -3281,7 +3290,7 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="17"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -3313,7 +3322,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="17"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -3345,7 +3354,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="17"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -3377,7 +3386,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -3409,7 +3418,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="17"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -3441,7 +3450,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="17"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3473,7 +3482,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="17"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3505,7 +3514,7 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="17"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -3537,7 +3546,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="17"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -3569,7 +3578,7 @@
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="17"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -3601,7 +3610,7 @@
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="17"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -3633,7 +3642,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="17"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -3665,7 +3674,7 @@
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="17"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -3697,7 +3706,7 @@
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="17"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -3729,7 +3738,7 @@
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="17"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -3761,7 +3770,7 @@
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="17"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -3793,7 +3802,7 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="17"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -3825,7 +3834,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="17"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -3857,7 +3866,7 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="17"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -3889,7 +3898,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="17"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -3921,7 +3930,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="17"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -3953,7 +3962,7 @@
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="17"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -3985,7 +3994,7 @@
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="17"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -4017,7 +4026,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="17"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -4049,7 +4058,7 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="17"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -4081,7 +4090,7 @@
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="17"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -4113,7 +4122,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="17"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -4145,7 +4154,7 @@
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="17"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -4177,7 +4186,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="17"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -4209,7 +4218,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="17"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -4241,7 +4250,7 @@
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="17"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -4273,7 +4282,7 @@
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="17"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -4305,7 +4314,7 @@
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="17"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -4337,7 +4346,7 @@
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="17"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -4369,7 +4378,7 @@
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="17"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -4401,7 +4410,7 @@
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="17"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -4433,7 +4442,7 @@
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="17"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -4465,7 +4474,7 @@
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="17"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -4497,7 +4506,7 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="17"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -4529,7 +4538,7 @@
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="17"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -4561,7 +4570,7 @@
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="17"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -4593,7 +4602,7 @@
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="17"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -4625,7 +4634,7 @@
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="17"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -4657,7 +4666,7 @@
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="17"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -4689,7 +4698,7 @@
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="17"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -4721,7 +4730,7 @@
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="17"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -4753,7 +4762,7 @@
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="17"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -4785,7 +4794,7 @@
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="17"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -4817,7 +4826,7 @@
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="17"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -4849,7 +4858,7 @@
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="17"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -4881,7 +4890,7 @@
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="17"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -4913,7 +4922,7 @@
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="17"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -4945,7 +4954,7 @@
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="17"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -4977,7 +4986,7 @@
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="17"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -5009,7 +5018,7 @@
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="17"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -5041,7 +5050,7 @@
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="17"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -5073,7 +5082,7 @@
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="17"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -5105,7 +5114,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="17"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -5137,7 +5146,7 @@
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="17"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -5169,7 +5178,7 @@
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="17"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -5201,7 +5210,7 @@
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="17"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -5233,7 +5242,7 @@
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-      <c r="D96" s="17"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -5265,7 +5274,7 @@
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
-      <c r="D97" s="17"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -5297,7 +5306,7 @@
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="17"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -5329,7 +5338,7 @@
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
-      <c r="D99" s="17"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -5361,7 +5370,7 @@
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="17"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -5393,7 +5402,7 @@
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
-      <c r="D101" s="17"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -5425,7 +5434,7 @@
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="17"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -5457,7 +5466,7 @@
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="17"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -5489,7 +5498,7 @@
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="17"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -5521,7 +5530,7 @@
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="17"/>
+      <c r="D105" s="18"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -5553,7 +5562,7 @@
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="17"/>
+      <c r="D106" s="18"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -5585,7 +5594,7 @@
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="17"/>
+      <c r="D107" s="18"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -5617,7 +5626,7 @@
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="17"/>
+      <c r="D108" s="18"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -5649,7 +5658,7 @@
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="17"/>
+      <c r="D109" s="18"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -5681,7 +5690,7 @@
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="17"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -5713,7 +5722,7 @@
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="17"/>
+      <c r="D111" s="18"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -5745,7 +5754,7 @@
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="17"/>
+      <c r="D112" s="18"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -5777,7 +5786,7 @@
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="17"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -5809,7 +5818,7 @@
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="17"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -5841,7 +5850,7 @@
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="17"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -5873,7 +5882,7 @@
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="17"/>
+      <c r="D116" s="18"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -5905,7 +5914,7 @@
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="17"/>
+      <c r="D117" s="18"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -5937,7 +5946,7 @@
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="17"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -5969,7 +5978,7 @@
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="17"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -6001,7 +6010,7 @@
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
-      <c r="D120" s="17"/>
+      <c r="D120" s="18"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -6033,7 +6042,7 @@
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
-      <c r="D121" s="17"/>
+      <c r="D121" s="18"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -6065,7 +6074,7 @@
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="17"/>
+      <c r="D122" s="18"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -6097,7 +6106,7 @@
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
-      <c r="D123" s="17"/>
+      <c r="D123" s="18"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -6129,7 +6138,7 @@
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="17"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -6161,7 +6170,7 @@
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="17"/>
+      <c r="D125" s="18"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -6193,7 +6202,7 @@
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
-      <c r="D126" s="17"/>
+      <c r="D126" s="18"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -6225,7 +6234,7 @@
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
-      <c r="D127" s="17"/>
+      <c r="D127" s="18"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -6257,7 +6266,7 @@
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="17"/>
+      <c r="D128" s="18"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
@@ -6289,7 +6298,7 @@
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="17"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -6321,7 +6330,7 @@
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="17"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
@@ -6353,7 +6362,7 @@
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
-      <c r="D131" s="17"/>
+      <c r="D131" s="18"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -6385,7 +6394,7 @@
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="17"/>
+      <c r="D132" s="18"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -6417,7 +6426,7 @@
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="17"/>
+      <c r="D133" s="18"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -6449,7 +6458,7 @@
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
-      <c r="D134" s="17"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -6481,7 +6490,7 @@
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="17"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -6513,7 +6522,7 @@
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="17"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
@@ -6545,7 +6554,7 @@
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="17"/>
+      <c r="D137" s="18"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
@@ -6577,7 +6586,7 @@
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="17"/>
+      <c r="D138" s="18"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
@@ -6609,7 +6618,7 @@
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
-      <c r="D139" s="17"/>
+      <c r="D139" s="18"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
@@ -6641,7 +6650,7 @@
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="17"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
@@ -6673,7 +6682,7 @@
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="17"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
@@ -6705,7 +6714,7 @@
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="17"/>
+      <c r="D142" s="18"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -6737,7 +6746,7 @@
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="17"/>
+      <c r="D143" s="18"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -6769,7 +6778,7 @@
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="17"/>
+      <c r="D144" s="18"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -6801,7 +6810,7 @@
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="17"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
@@ -6833,7 +6842,7 @@
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="17"/>
+      <c r="D146" s="18"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -6865,7 +6874,7 @@
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="17"/>
+      <c r="D147" s="18"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -6897,7 +6906,7 @@
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
-      <c r="D148" s="17"/>
+      <c r="D148" s="18"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -6929,7 +6938,7 @@
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="17"/>
+      <c r="D149" s="18"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -6961,7 +6970,7 @@
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="17"/>
+      <c r="D150" s="18"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -6993,7 +7002,7 @@
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="17"/>
+      <c r="D151" s="18"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
@@ -7025,7 +7034,7 @@
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="17"/>
+      <c r="D152" s="18"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -7057,7 +7066,7 @@
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="17"/>
+      <c r="D153" s="18"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -7089,7 +7098,7 @@
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="17"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
@@ -7121,7 +7130,7 @@
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="17"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
@@ -7153,7 +7162,7 @@
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
-      <c r="D156" s="17"/>
+      <c r="D156" s="18"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
@@ -7185,7 +7194,7 @@
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
-      <c r="D157" s="17"/>
+      <c r="D157" s="18"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -7217,7 +7226,7 @@
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="17"/>
+      <c r="D158" s="18"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -7249,7 +7258,7 @@
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
-      <c r="D159" s="17"/>
+      <c r="D159" s="18"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -7281,7 +7290,7 @@
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
-      <c r="D160" s="17"/>
+      <c r="D160" s="18"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -7313,7 +7322,7 @@
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
-      <c r="D161" s="17"/>
+      <c r="D161" s="18"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
@@ -7345,7 +7354,7 @@
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="17"/>
+      <c r="D162" s="18"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -7377,7 +7386,7 @@
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="17"/>
+      <c r="D163" s="18"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
@@ -7409,7 +7418,7 @@
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="17"/>
+      <c r="D164" s="18"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -7441,7 +7450,7 @@
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="17"/>
+      <c r="D165" s="18"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
@@ -7473,7 +7482,7 @@
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="17"/>
+      <c r="D166" s="18"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
@@ -7505,7 +7514,7 @@
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
-      <c r="D167" s="17"/>
+      <c r="D167" s="18"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -7537,7 +7546,7 @@
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
-      <c r="D168" s="17"/>
+      <c r="D168" s="18"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
@@ -7569,7 +7578,7 @@
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
-      <c r="D169" s="17"/>
+      <c r="D169" s="18"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
@@ -7601,7 +7610,7 @@
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="17"/>
+      <c r="D170" s="18"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
@@ -7633,7 +7642,7 @@
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
-      <c r="D171" s="17"/>
+      <c r="D171" s="18"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
@@ -7665,7 +7674,7 @@
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
-      <c r="D172" s="17"/>
+      <c r="D172" s="18"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
@@ -7697,7 +7706,7 @@
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
-      <c r="D173" s="17"/>
+      <c r="D173" s="18"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
@@ -7729,7 +7738,7 @@
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
-      <c r="D174" s="17"/>
+      <c r="D174" s="18"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
@@ -7761,7 +7770,7 @@
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
-      <c r="D175" s="17"/>
+      <c r="D175" s="18"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
@@ -7793,7 +7802,7 @@
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
-      <c r="D176" s="17"/>
+      <c r="D176" s="18"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
@@ -7825,7 +7834,7 @@
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
-      <c r="D177" s="17"/>
+      <c r="D177" s="18"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
@@ -7857,7 +7866,7 @@
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
-      <c r="D178" s="17"/>
+      <c r="D178" s="18"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
@@ -7889,7 +7898,7 @@
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
-      <c r="D179" s="17"/>
+      <c r="D179" s="18"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
@@ -7921,7 +7930,7 @@
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
-      <c r="D180" s="17"/>
+      <c r="D180" s="18"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
@@ -7953,7 +7962,7 @@
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
-      <c r="D181" s="17"/>
+      <c r="D181" s="18"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
@@ -7985,7 +7994,7 @@
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
-      <c r="D182" s="17"/>
+      <c r="D182" s="18"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
@@ -8017,7 +8026,7 @@
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
-      <c r="D183" s="17"/>
+      <c r="D183" s="18"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
@@ -8049,7 +8058,7 @@
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
-      <c r="D184" s="17"/>
+      <c r="D184" s="18"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
@@ -8081,7 +8090,7 @@
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
-      <c r="D185" s="17"/>
+      <c r="D185" s="18"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
@@ -8113,7 +8122,7 @@
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
-      <c r="D186" s="17"/>
+      <c r="D186" s="18"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
@@ -8145,7 +8154,7 @@
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
-      <c r="D187" s="17"/>
+      <c r="D187" s="18"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
@@ -8177,7 +8186,7 @@
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
-      <c r="D188" s="17"/>
+      <c r="D188" s="18"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
@@ -8209,7 +8218,7 @@
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
-      <c r="D189" s="17"/>
+      <c r="D189" s="18"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
@@ -8241,7 +8250,7 @@
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
-      <c r="D190" s="17"/>
+      <c r="D190" s="18"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
@@ -8273,7 +8282,7 @@
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
-      <c r="D191" s="17"/>
+      <c r="D191" s="18"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
@@ -8305,7 +8314,7 @@
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
-      <c r="D192" s="17"/>
+      <c r="D192" s="18"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
@@ -8337,7 +8346,7 @@
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
-      <c r="D193" s="17"/>
+      <c r="D193" s="18"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
@@ -8369,7 +8378,7 @@
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="17"/>
+      <c r="D194" s="18"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
@@ -8401,7 +8410,7 @@
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
-      <c r="D195" s="17"/>
+      <c r="D195" s="18"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
@@ -8433,7 +8442,7 @@
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
-      <c r="D196" s="17"/>
+      <c r="D196" s="18"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
@@ -8465,7 +8474,7 @@
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
-      <c r="D197" s="17"/>
+      <c r="D197" s="18"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
@@ -8497,7 +8506,7 @@
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
-      <c r="D198" s="17"/>
+      <c r="D198" s="18"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
@@ -8529,7 +8538,7 @@
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
-      <c r="D199" s="17"/>
+      <c r="D199" s="18"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
@@ -8561,7 +8570,7 @@
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
-      <c r="D200" s="17"/>
+      <c r="D200" s="18"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
@@ -8593,7 +8602,7 @@
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
-      <c r="D201" s="17"/>
+      <c r="D201" s="18"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
@@ -8625,7 +8634,7 @@
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
-      <c r="D202" s="17"/>
+      <c r="D202" s="18"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
@@ -8657,7 +8666,7 @@
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
-      <c r="D203" s="17"/>
+      <c r="D203" s="18"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
@@ -8689,7 +8698,7 @@
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
-      <c r="D204" s="17"/>
+      <c r="D204" s="18"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -8721,7 +8730,7 @@
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
-      <c r="D205" s="17"/>
+      <c r="D205" s="18"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
@@ -8753,7 +8762,7 @@
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
-      <c r="D206" s="17"/>
+      <c r="D206" s="18"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
@@ -8785,7 +8794,7 @@
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
-      <c r="D207" s="17"/>
+      <c r="D207" s="18"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
@@ -8817,7 +8826,7 @@
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
-      <c r="D208" s="17"/>
+      <c r="D208" s="18"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -8849,7 +8858,7 @@
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
-      <c r="D209" s="17"/>
+      <c r="D209" s="18"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
@@ -8881,7 +8890,7 @@
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
-      <c r="D210" s="17"/>
+      <c r="D210" s="18"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
@@ -8913,7 +8922,7 @@
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
-      <c r="D211" s="17"/>
+      <c r="D211" s="18"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -8945,7 +8954,7 @@
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
-      <c r="D212" s="17"/>
+      <c r="D212" s="18"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
@@ -8977,7 +8986,7 @@
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
-      <c r="D213" s="17"/>
+      <c r="D213" s="18"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
@@ -9009,7 +9018,7 @@
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="17"/>
+      <c r="D214" s="18"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -9041,7 +9050,7 @@
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
-      <c r="D215" s="17"/>
+      <c r="D215" s="18"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
@@ -9073,7 +9082,7 @@
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
-      <c r="D216" s="17"/>
+      <c r="D216" s="18"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
@@ -9105,7 +9114,7 @@
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
-      <c r="D217" s="17"/>
+      <c r="D217" s="18"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
@@ -9137,7 +9146,7 @@
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
-      <c r="D218" s="17"/>
+      <c r="D218" s="18"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
@@ -9169,7 +9178,7 @@
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
-      <c r="D219" s="17"/>
+      <c r="D219" s="18"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -9201,7 +9210,7 @@
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
-      <c r="D220" s="17"/>
+      <c r="D220" s="18"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -9233,7 +9242,7 @@
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
-      <c r="D221" s="17"/>
+      <c r="D221" s="18"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
@@ -9265,7 +9274,7 @@
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
-      <c r="D222" s="17"/>
+      <c r="D222" s="18"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
@@ -9297,7 +9306,7 @@
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
-      <c r="D223" s="17"/>
+      <c r="D223" s="18"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
@@ -9329,7 +9338,7 @@
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
-      <c r="D224" s="17"/>
+      <c r="D224" s="18"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
@@ -9361,7 +9370,7 @@
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
-      <c r="D225" s="17"/>
+      <c r="D225" s="18"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
@@ -9393,7 +9402,7 @@
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
-      <c r="D226" s="17"/>
+      <c r="D226" s="18"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
@@ -9425,7 +9434,7 @@
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
-      <c r="D227" s="17"/>
+      <c r="D227" s="18"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -9457,7 +9466,7 @@
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
-      <c r="D228" s="17"/>
+      <c r="D228" s="18"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
@@ -9489,7 +9498,7 @@
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
-      <c r="D229" s="17"/>
+      <c r="D229" s="18"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
@@ -9521,7 +9530,7 @@
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
-      <c r="D230" s="17"/>
+      <c r="D230" s="18"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
@@ -9553,7 +9562,7 @@
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
-      <c r="D231" s="17"/>
+      <c r="D231" s="18"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
@@ -9585,7 +9594,7 @@
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
-      <c r="D232" s="17"/>
+      <c r="D232" s="18"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
@@ -9617,7 +9626,7 @@
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
-      <c r="D233" s="17"/>
+      <c r="D233" s="18"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
@@ -9649,7 +9658,7 @@
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
-      <c r="D234" s="17"/>
+      <c r="D234" s="18"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
@@ -9681,7 +9690,7 @@
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
-      <c r="D235" s="17"/>
+      <c r="D235" s="18"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
@@ -9713,7 +9722,7 @@
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
-      <c r="D236" s="17"/>
+      <c r="D236" s="18"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
@@ -9745,7 +9754,7 @@
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
-      <c r="D237" s="17"/>
+      <c r="D237" s="18"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
@@ -9777,7 +9786,7 @@
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
-      <c r="D238" s="17"/>
+      <c r="D238" s="18"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
@@ -9809,7 +9818,7 @@
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
-      <c r="D239" s="17"/>
+      <c r="D239" s="18"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
@@ -9841,7 +9850,7 @@
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
-      <c r="D240" s="17"/>
+      <c r="D240" s="18"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
@@ -9873,7 +9882,7 @@
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="17"/>
+      <c r="D241" s="18"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
@@ -9905,7 +9914,7 @@
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
-      <c r="D242" s="17"/>
+      <c r="D242" s="18"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
@@ -9937,7 +9946,7 @@
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
-      <c r="D243" s="17"/>
+      <c r="D243" s="18"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
@@ -9969,7 +9978,7 @@
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
-      <c r="D244" s="17"/>
+      <c r="D244" s="18"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
@@ -10001,7 +10010,7 @@
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
-      <c r="D245" s="17"/>
+      <c r="D245" s="18"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
@@ -10033,7 +10042,7 @@
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
-      <c r="D246" s="17"/>
+      <c r="D246" s="18"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
@@ -10065,7 +10074,7 @@
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
-      <c r="D247" s="17"/>
+      <c r="D247" s="18"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
@@ -10097,7 +10106,7 @@
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
-      <c r="D248" s="17"/>
+      <c r="D248" s="18"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
@@ -10129,7 +10138,7 @@
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
-      <c r="D249" s="17"/>
+      <c r="D249" s="18"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
@@ -10161,7 +10170,7 @@
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
-      <c r="D250" s="17"/>
+      <c r="D250" s="18"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
@@ -10193,7 +10202,7 @@
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
-      <c r="D251" s="17"/>
+      <c r="D251" s="18"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
@@ -10225,7 +10234,7 @@
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
-      <c r="D252" s="17"/>
+      <c r="D252" s="18"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
@@ -10257,7 +10266,7 @@
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
-      <c r="D253" s="17"/>
+      <c r="D253" s="18"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
@@ -10289,7 +10298,7 @@
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
-      <c r="D254" s="17"/>
+      <c r="D254" s="18"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
@@ -10321,7 +10330,7 @@
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
-      <c r="D255" s="17"/>
+      <c r="D255" s="18"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
@@ -10353,7 +10362,7 @@
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
-      <c r="D256" s="17"/>
+      <c r="D256" s="18"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
@@ -10385,7 +10394,7 @@
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="17"/>
+      <c r="D257" s="18"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
@@ -10417,7 +10426,7 @@
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="17"/>
+      <c r="D258" s="18"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
@@ -10449,7 +10458,7 @@
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
-      <c r="D259" s="17"/>
+      <c r="D259" s="18"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
@@ -10481,7 +10490,7 @@
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
-      <c r="D260" s="17"/>
+      <c r="D260" s="18"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
@@ -10513,7 +10522,7 @@
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
-      <c r="D261" s="17"/>
+      <c r="D261" s="18"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
@@ -10545,7 +10554,7 @@
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
-      <c r="D262" s="17"/>
+      <c r="D262" s="18"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
@@ -10577,7 +10586,7 @@
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
-      <c r="D263" s="17"/>
+      <c r="D263" s="18"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
@@ -10609,7 +10618,7 @@
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
-      <c r="D264" s="17"/>
+      <c r="D264" s="18"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
@@ -10641,7 +10650,7 @@
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
-      <c r="D265" s="17"/>
+      <c r="D265" s="18"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
@@ -10673,7 +10682,7 @@
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="17"/>
+      <c r="D266" s="18"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
@@ -10705,7 +10714,7 @@
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="17"/>
+      <c r="D267" s="18"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
@@ -10737,7 +10746,7 @@
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="17"/>
+      <c r="D268" s="18"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
@@ -10769,7 +10778,7 @@
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="17"/>
+      <c r="D269" s="18"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
@@ -10801,7 +10810,7 @@
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="17"/>
+      <c r="D270" s="18"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
@@ -10833,7 +10842,7 @@
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="17"/>
+      <c r="D271" s="18"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
@@ -10865,7 +10874,7 @@
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="17"/>
+      <c r="D272" s="18"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
@@ -10897,7 +10906,7 @@
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="17"/>
+      <c r="D273" s="18"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
@@ -10929,7 +10938,7 @@
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="17"/>
+      <c r="D274" s="18"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
@@ -10961,7 +10970,7 @@
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="17"/>
+      <c r="D275" s="18"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
@@ -10993,7 +11002,7 @@
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="17"/>
+      <c r="D276" s="18"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
@@ -11025,7 +11034,7 @@
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="17"/>
+      <c r="D277" s="18"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
@@ -11057,7 +11066,7 @@
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
-      <c r="D278" s="17"/>
+      <c r="D278" s="18"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
@@ -11089,7 +11098,7 @@
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
-      <c r="D279" s="17"/>
+      <c r="D279" s="18"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
@@ -11121,7 +11130,7 @@
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
-      <c r="D280" s="17"/>
+      <c r="D280" s="18"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
@@ -11153,7 +11162,7 @@
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
-      <c r="D281" s="17"/>
+      <c r="D281" s="18"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
@@ -11185,7 +11194,7 @@
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
-      <c r="D282" s="17"/>
+      <c r="D282" s="18"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
@@ -11217,7 +11226,7 @@
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
-      <c r="D283" s="17"/>
+      <c r="D283" s="18"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
@@ -11249,7 +11258,7 @@
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
-      <c r="D284" s="17"/>
+      <c r="D284" s="18"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
@@ -11281,7 +11290,7 @@
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
-      <c r="D285" s="17"/>
+      <c r="D285" s="18"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
@@ -11313,7 +11322,7 @@
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
-      <c r="D286" s="17"/>
+      <c r="D286" s="18"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
@@ -11345,7 +11354,7 @@
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
-      <c r="D287" s="17"/>
+      <c r="D287" s="18"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
@@ -11377,7 +11386,7 @@
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
-      <c r="D288" s="17"/>
+      <c r="D288" s="18"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
@@ -11409,7 +11418,7 @@
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
-      <c r="D289" s="17"/>
+      <c r="D289" s="18"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
@@ -11441,7 +11450,7 @@
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
-      <c r="D290" s="17"/>
+      <c r="D290" s="18"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
@@ -11473,7 +11482,7 @@
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
-      <c r="D291" s="17"/>
+      <c r="D291" s="18"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
@@ -11505,7 +11514,7 @@
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
-      <c r="D292" s="17"/>
+      <c r="D292" s="18"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
@@ -11537,7 +11546,7 @@
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
-      <c r="D293" s="17"/>
+      <c r="D293" s="18"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
@@ -11569,7 +11578,7 @@
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
-      <c r="D294" s="17"/>
+      <c r="D294" s="18"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
@@ -11601,7 +11610,7 @@
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
-      <c r="D295" s="17"/>
+      <c r="D295" s="18"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
@@ -11633,7 +11642,7 @@
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
-      <c r="D296" s="17"/>
+      <c r="D296" s="18"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
@@ -11665,7 +11674,7 @@
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
-      <c r="D297" s="17"/>
+      <c r="D297" s="18"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
@@ -11697,7 +11706,7 @@
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
-      <c r="D298" s="17"/>
+      <c r="D298" s="18"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
@@ -11729,7 +11738,7 @@
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
-      <c r="D299" s="17"/>
+      <c r="D299" s="18"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
@@ -11761,7 +11770,7 @@
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
-      <c r="D300" s="17"/>
+      <c r="D300" s="18"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
@@ -11793,7 +11802,7 @@
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" s="17"/>
+      <c r="D301" s="18"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
@@ -11825,7 +11834,7 @@
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
-      <c r="D302" s="17"/>
+      <c r="D302" s="18"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
@@ -11857,7 +11866,7 @@
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
-      <c r="D303" s="17"/>
+      <c r="D303" s="18"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
@@ -11889,7 +11898,7 @@
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
-      <c r="D304" s="17"/>
+      <c r="D304" s="18"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
@@ -11921,7 +11930,7 @@
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
-      <c r="D305" s="17"/>
+      <c r="D305" s="18"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
@@ -11953,7 +11962,7 @@
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
-      <c r="D306" s="17"/>
+      <c r="D306" s="18"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
@@ -11985,7 +11994,7 @@
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
-      <c r="D307" s="17"/>
+      <c r="D307" s="18"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
@@ -12017,7 +12026,7 @@
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="17"/>
+      <c r="D308" s="18"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
@@ -12049,7 +12058,7 @@
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
-      <c r="D309" s="17"/>
+      <c r="D309" s="18"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
@@ -12081,7 +12090,7 @@
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
-      <c r="D310" s="17"/>
+      <c r="D310" s="18"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
@@ -12113,7 +12122,7 @@
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
-      <c r="D311" s="17"/>
+      <c r="D311" s="18"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
@@ -12145,7 +12154,7 @@
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
-      <c r="D312" s="17"/>
+      <c r="D312" s="18"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
@@ -12177,7 +12186,7 @@
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
-      <c r="D313" s="17"/>
+      <c r="D313" s="18"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
@@ -12209,7 +12218,7 @@
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
-      <c r="D314" s="17"/>
+      <c r="D314" s="18"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
@@ -12241,7 +12250,7 @@
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
-      <c r="D315" s="17"/>
+      <c r="D315" s="18"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
@@ -12273,7 +12282,7 @@
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
-      <c r="D316" s="17"/>
+      <c r="D316" s="18"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
@@ -12305,7 +12314,7 @@
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
-      <c r="D317" s="17"/>
+      <c r="D317" s="18"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
@@ -12337,7 +12346,7 @@
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
-      <c r="D318" s="17"/>
+      <c r="D318" s="18"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
@@ -12369,7 +12378,7 @@
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
-      <c r="D319" s="17"/>
+      <c r="D319" s="18"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -12401,7 +12410,7 @@
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
-      <c r="D320" s="17"/>
+      <c r="D320" s="18"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
@@ -12433,7 +12442,7 @@
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
-      <c r="D321" s="17"/>
+      <c r="D321" s="18"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
@@ -12465,7 +12474,7 @@
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
-      <c r="D322" s="17"/>
+      <c r="D322" s="18"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
@@ -12497,7 +12506,7 @@
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
-      <c r="D323" s="17"/>
+      <c r="D323" s="18"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
@@ -12529,7 +12538,7 @@
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
-      <c r="D324" s="17"/>
+      <c r="D324" s="18"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -12561,7 +12570,7 @@
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
-      <c r="D325" s="17"/>
+      <c r="D325" s="18"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
@@ -12593,7 +12602,7 @@
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
-      <c r="D326" s="17"/>
+      <c r="D326" s="18"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
@@ -12625,7 +12634,7 @@
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
-      <c r="D327" s="17"/>
+      <c r="D327" s="18"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
@@ -12657,7 +12666,7 @@
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
-      <c r="D328" s="17"/>
+      <c r="D328" s="18"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
@@ -12689,7 +12698,7 @@
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
-      <c r="D329" s="17"/>
+      <c r="D329" s="18"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
@@ -12721,7 +12730,7 @@
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
-      <c r="D330" s="17"/>
+      <c r="D330" s="18"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
@@ -12753,7 +12762,7 @@
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
-      <c r="D331" s="17"/>
+      <c r="D331" s="18"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
@@ -12785,7 +12794,7 @@
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
-      <c r="D332" s="17"/>
+      <c r="D332" s="18"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
@@ -12817,7 +12826,7 @@
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
-      <c r="D333" s="17"/>
+      <c r="D333" s="18"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
@@ -12849,7 +12858,7 @@
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
-      <c r="D334" s="17"/>
+      <c r="D334" s="18"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
@@ -12881,7 +12890,7 @@
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
-      <c r="D335" s="17"/>
+      <c r="D335" s="18"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -12913,7 +12922,7 @@
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
-      <c r="D336" s="17"/>
+      <c r="D336" s="18"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
@@ -12945,7 +12954,7 @@
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
-      <c r="D337" s="17"/>
+      <c r="D337" s="18"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
@@ -12977,7 +12986,7 @@
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
-      <c r="D338" s="17"/>
+      <c r="D338" s="18"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
@@ -13009,7 +13018,7 @@
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
-      <c r="D339" s="17"/>
+      <c r="D339" s="18"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
@@ -13041,7 +13050,7 @@
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
-      <c r="D340" s="17"/>
+      <c r="D340" s="18"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
@@ -13073,7 +13082,7 @@
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
-      <c r="D341" s="17"/>
+      <c r="D341" s="18"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
@@ -13105,7 +13114,7 @@
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
-      <c r="D342" s="17"/>
+      <c r="D342" s="18"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
@@ -13137,7 +13146,7 @@
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
-      <c r="D343" s="17"/>
+      <c r="D343" s="18"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
@@ -13169,7 +13178,7 @@
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
-      <c r="D344" s="17"/>
+      <c r="D344" s="18"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
@@ -13201,7 +13210,7 @@
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
-      <c r="D345" s="17"/>
+      <c r="D345" s="18"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
@@ -13233,7 +13242,7 @@
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
-      <c r="D346" s="17"/>
+      <c r="D346" s="18"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
@@ -13265,7 +13274,7 @@
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
-      <c r="D347" s="17"/>
+      <c r="D347" s="18"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
@@ -13297,7 +13306,7 @@
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
-      <c r="D348" s="17"/>
+      <c r="D348" s="18"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
@@ -13329,7 +13338,7 @@
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
-      <c r="D349" s="17"/>
+      <c r="D349" s="18"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
@@ -13361,7 +13370,7 @@
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
-      <c r="D350" s="17"/>
+      <c r="D350" s="18"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
@@ -13393,7 +13402,7 @@
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
-      <c r="D351" s="17"/>
+      <c r="D351" s="18"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
@@ -13425,7 +13434,7 @@
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
-      <c r="D352" s="17"/>
+      <c r="D352" s="18"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
@@ -13457,7 +13466,7 @@
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
-      <c r="D353" s="17"/>
+      <c r="D353" s="18"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
@@ -13489,7 +13498,7 @@
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
-      <c r="D354" s="17"/>
+      <c r="D354" s="18"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
@@ -13521,7 +13530,7 @@
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
-      <c r="D355" s="17"/>
+      <c r="D355" s="18"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
@@ -13553,7 +13562,7 @@
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
-      <c r="D356" s="17"/>
+      <c r="D356" s="18"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
@@ -13585,7 +13594,7 @@
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
-      <c r="D357" s="17"/>
+      <c r="D357" s="18"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
@@ -13617,7 +13626,7 @@
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
-      <c r="D358" s="17"/>
+      <c r="D358" s="18"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
@@ -13649,7 +13658,7 @@
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
-      <c r="D359" s="17"/>
+      <c r="D359" s="18"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
@@ -13681,7 +13690,7 @@
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
-      <c r="D360" s="17"/>
+      <c r="D360" s="18"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
@@ -13713,7 +13722,7 @@
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
-      <c r="D361" s="17"/>
+      <c r="D361" s="18"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
@@ -13745,7 +13754,7 @@
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
-      <c r="D362" s="17"/>
+      <c r="D362" s="18"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
@@ -13777,7 +13786,7 @@
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
-      <c r="D363" s="17"/>
+      <c r="D363" s="18"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
@@ -13809,7 +13818,7 @@
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
-      <c r="D364" s="17"/>
+      <c r="D364" s="18"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
@@ -13841,7 +13850,7 @@
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
-      <c r="D365" s="17"/>
+      <c r="D365" s="18"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
@@ -13873,7 +13882,7 @@
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
-      <c r="D366" s="17"/>
+      <c r="D366" s="18"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
@@ -13905,7 +13914,7 @@
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
-      <c r="D367" s="17"/>
+      <c r="D367" s="18"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
@@ -13937,7 +13946,7 @@
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
-      <c r="D368" s="17"/>
+      <c r="D368" s="18"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
@@ -13969,7 +13978,7 @@
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
-      <c r="D369" s="17"/>
+      <c r="D369" s="18"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
@@ -14001,7 +14010,7 @@
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
-      <c r="D370" s="17"/>
+      <c r="D370" s="18"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
@@ -14033,7 +14042,7 @@
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
-      <c r="D371" s="17"/>
+      <c r="D371" s="18"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
@@ -14065,7 +14074,7 @@
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
-      <c r="D372" s="17"/>
+      <c r="D372" s="18"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
@@ -14097,7 +14106,7 @@
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
-      <c r="D373" s="17"/>
+      <c r="D373" s="18"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
@@ -14129,7 +14138,7 @@
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
-      <c r="D374" s="17"/>
+      <c r="D374" s="18"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
@@ -14161,7 +14170,7 @@
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
-      <c r="D375" s="17"/>
+      <c r="D375" s="18"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
@@ -14193,7 +14202,7 @@
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
-      <c r="D376" s="17"/>
+      <c r="D376" s="18"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
@@ -14225,7 +14234,7 @@
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
-      <c r="D377" s="17"/>
+      <c r="D377" s="18"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
@@ -14257,7 +14266,7 @@
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
-      <c r="D378" s="17"/>
+      <c r="D378" s="18"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
@@ -14289,7 +14298,7 @@
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
-      <c r="D379" s="17"/>
+      <c r="D379" s="18"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
@@ -14321,7 +14330,7 @@
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
-      <c r="D380" s="17"/>
+      <c r="D380" s="18"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
@@ -14353,7 +14362,7 @@
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
-      <c r="D381" s="17"/>
+      <c r="D381" s="18"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
@@ -14385,7 +14394,7 @@
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
-      <c r="D382" s="17"/>
+      <c r="D382" s="18"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
@@ -14417,7 +14426,7 @@
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
-      <c r="D383" s="17"/>
+      <c r="D383" s="18"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
@@ -14449,7 +14458,7 @@
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
-      <c r="D384" s="17"/>
+      <c r="D384" s="18"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
@@ -14481,7 +14490,7 @@
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
-      <c r="D385" s="17"/>
+      <c r="D385" s="18"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
@@ -14513,7 +14522,7 @@
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
-      <c r="D386" s="17"/>
+      <c r="D386" s="18"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
@@ -14545,7 +14554,7 @@
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
-      <c r="D387" s="17"/>
+      <c r="D387" s="18"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
@@ -14577,7 +14586,7 @@
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
-      <c r="D388" s="17"/>
+      <c r="D388" s="18"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
@@ -14609,7 +14618,7 @@
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
-      <c r="D389" s="17"/>
+      <c r="D389" s="18"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
@@ -14641,7 +14650,7 @@
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
-      <c r="D390" s="17"/>
+      <c r="D390" s="18"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
@@ -14673,7 +14682,7 @@
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
-      <c r="D391" s="17"/>
+      <c r="D391" s="18"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
@@ -14705,7 +14714,7 @@
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
-      <c r="D392" s="17"/>
+      <c r="D392" s="18"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
@@ -14737,7 +14746,7 @@
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
-      <c r="D393" s="17"/>
+      <c r="D393" s="18"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
@@ -14769,7 +14778,7 @@
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
-      <c r="D394" s="17"/>
+      <c r="D394" s="18"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
@@ -14801,7 +14810,7 @@
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
-      <c r="D395" s="17"/>
+      <c r="D395" s="18"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
@@ -14833,7 +14842,7 @@
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
-      <c r="D396" s="17"/>
+      <c r="D396" s="18"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
@@ -14865,7 +14874,7 @@
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
-      <c r="D397" s="17"/>
+      <c r="D397" s="18"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
@@ -14897,7 +14906,7 @@
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
-      <c r="D398" s="17"/>
+      <c r="D398" s="18"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
@@ -14929,7 +14938,7 @@
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
-      <c r="D399" s="17"/>
+      <c r="D399" s="18"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
@@ -14961,7 +14970,7 @@
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
-      <c r="D400" s="17"/>
+      <c r="D400" s="18"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
@@ -14993,7 +15002,7 @@
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
-      <c r="D401" s="17"/>
+      <c r="D401" s="18"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
@@ -15025,7 +15034,7 @@
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
-      <c r="D402" s="17"/>
+      <c r="D402" s="18"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
@@ -15057,7 +15066,7 @@
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
-      <c r="D403" s="17"/>
+      <c r="D403" s="18"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
@@ -15089,7 +15098,7 @@
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
-      <c r="D404" s="17"/>
+      <c r="D404" s="18"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
@@ -15121,7 +15130,7 @@
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
-      <c r="D405" s="17"/>
+      <c r="D405" s="18"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
@@ -15153,7 +15162,7 @@
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
-      <c r="D406" s="17"/>
+      <c r="D406" s="18"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
@@ -15185,7 +15194,7 @@
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
-      <c r="D407" s="17"/>
+      <c r="D407" s="18"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
@@ -15217,7 +15226,7 @@
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
-      <c r="D408" s="17"/>
+      <c r="D408" s="18"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
@@ -15249,7 +15258,7 @@
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
-      <c r="D409" s="17"/>
+      <c r="D409" s="18"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
@@ -15281,7 +15290,7 @@
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
-      <c r="D410" s="17"/>
+      <c r="D410" s="18"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
@@ -15313,7 +15322,7 @@
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
-      <c r="D411" s="17"/>
+      <c r="D411" s="18"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
@@ -15345,7 +15354,7 @@
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
-      <c r="D412" s="17"/>
+      <c r="D412" s="18"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
@@ -15377,7 +15386,7 @@
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
-      <c r="D413" s="17"/>
+      <c r="D413" s="18"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
@@ -15409,7 +15418,7 @@
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
-      <c r="D414" s="17"/>
+      <c r="D414" s="18"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
@@ -15441,7 +15450,7 @@
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
-      <c r="D415" s="17"/>
+      <c r="D415" s="18"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
@@ -15473,7 +15482,7 @@
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
-      <c r="D416" s="17"/>
+      <c r="D416" s="18"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
@@ -15505,7 +15514,7 @@
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
-      <c r="D417" s="17"/>
+      <c r="D417" s="18"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
@@ -15537,7 +15546,7 @@
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
-      <c r="D418" s="17"/>
+      <c r="D418" s="18"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
@@ -15569,7 +15578,7 @@
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
-      <c r="D419" s="17"/>
+      <c r="D419" s="18"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
@@ -15601,7 +15610,7 @@
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
-      <c r="D420" s="17"/>
+      <c r="D420" s="18"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
@@ -15633,7 +15642,7 @@
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
-      <c r="D421" s="17"/>
+      <c r="D421" s="18"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
@@ -15665,7 +15674,7 @@
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
-      <c r="D422" s="17"/>
+      <c r="D422" s="18"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
@@ -15697,7 +15706,7 @@
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
-      <c r="D423" s="17"/>
+      <c r="D423" s="18"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
@@ -15729,7 +15738,7 @@
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
-      <c r="D424" s="17"/>
+      <c r="D424" s="18"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
@@ -15761,7 +15770,7 @@
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
-      <c r="D425" s="17"/>
+      <c r="D425" s="18"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
@@ -15793,7 +15802,7 @@
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
-      <c r="D426" s="17"/>
+      <c r="D426" s="18"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
@@ -15825,7 +15834,7 @@
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
-      <c r="D427" s="17"/>
+      <c r="D427" s="18"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
@@ -15857,7 +15866,7 @@
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
-      <c r="D428" s="17"/>
+      <c r="D428" s="18"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
@@ -15889,7 +15898,7 @@
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
-      <c r="D429" s="17"/>
+      <c r="D429" s="18"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
@@ -15921,7 +15930,7 @@
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
-      <c r="D430" s="17"/>
+      <c r="D430" s="18"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
@@ -15953,7 +15962,7 @@
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
-      <c r="D431" s="17"/>
+      <c r="D431" s="18"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
@@ -15985,7 +15994,7 @@
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
-      <c r="D432" s="17"/>
+      <c r="D432" s="18"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
@@ -16017,7 +16026,7 @@
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
-      <c r="D433" s="17"/>
+      <c r="D433" s="18"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
@@ -16049,7 +16058,7 @@
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
-      <c r="D434" s="17"/>
+      <c r="D434" s="18"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
@@ -16081,7 +16090,7 @@
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
-      <c r="D435" s="17"/>
+      <c r="D435" s="18"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
@@ -16113,7 +16122,7 @@
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
-      <c r="D436" s="17"/>
+      <c r="D436" s="18"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
@@ -16145,7 +16154,7 @@
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
-      <c r="D437" s="17"/>
+      <c r="D437" s="18"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
@@ -16177,7 +16186,7 @@
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
-      <c r="D438" s="17"/>
+      <c r="D438" s="18"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
@@ -16209,7 +16218,7 @@
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
-      <c r="D439" s="17"/>
+      <c r="D439" s="18"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
@@ -16241,7 +16250,7 @@
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
-      <c r="D440" s="17"/>
+      <c r="D440" s="18"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
@@ -16273,7 +16282,7 @@
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
-      <c r="D441" s="17"/>
+      <c r="D441" s="18"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
@@ -16305,7 +16314,7 @@
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
-      <c r="D442" s="17"/>
+      <c r="D442" s="18"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
@@ -16337,7 +16346,7 @@
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
-      <c r="D443" s="17"/>
+      <c r="D443" s="18"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
@@ -16369,7 +16378,7 @@
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
-      <c r="D444" s="17"/>
+      <c r="D444" s="18"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
@@ -16401,7 +16410,7 @@
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
-      <c r="D445" s="17"/>
+      <c r="D445" s="18"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
@@ -16433,7 +16442,7 @@
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
-      <c r="D446" s="17"/>
+      <c r="D446" s="18"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
@@ -16465,7 +16474,7 @@
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
-      <c r="D447" s="17"/>
+      <c r="D447" s="18"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
@@ -16497,7 +16506,7 @@
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
-      <c r="D448" s="17"/>
+      <c r="D448" s="18"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
@@ -16529,7 +16538,7 @@
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
-      <c r="D449" s="17"/>
+      <c r="D449" s="18"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
@@ -16561,7 +16570,7 @@
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
-      <c r="D450" s="17"/>
+      <c r="D450" s="18"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
@@ -16593,7 +16602,7 @@
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
-      <c r="D451" s="17"/>
+      <c r="D451" s="18"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
@@ -16625,7 +16634,7 @@
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
-      <c r="D452" s="17"/>
+      <c r="D452" s="18"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
@@ -16657,7 +16666,7 @@
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
-      <c r="D453" s="17"/>
+      <c r="D453" s="18"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
@@ -16689,7 +16698,7 @@
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
-      <c r="D454" s="17"/>
+      <c r="D454" s="18"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
@@ -16721,7 +16730,7 @@
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
-      <c r="D455" s="17"/>
+      <c r="D455" s="18"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
@@ -16753,7 +16762,7 @@
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
-      <c r="D456" s="17"/>
+      <c r="D456" s="18"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
@@ -16785,7 +16794,7 @@
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
-      <c r="D457" s="17"/>
+      <c r="D457" s="18"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
@@ -16817,7 +16826,7 @@
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
-      <c r="D458" s="17"/>
+      <c r="D458" s="18"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
@@ -16849,7 +16858,7 @@
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
-      <c r="D459" s="17"/>
+      <c r="D459" s="18"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
@@ -16881,7 +16890,7 @@
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
-      <c r="D460" s="17"/>
+      <c r="D460" s="18"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
@@ -16913,7 +16922,7 @@
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
-      <c r="D461" s="17"/>
+      <c r="D461" s="18"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
@@ -16945,7 +16954,7 @@
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
-      <c r="D462" s="17"/>
+      <c r="D462" s="18"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
@@ -16977,7 +16986,7 @@
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
-      <c r="D463" s="17"/>
+      <c r="D463" s="18"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
@@ -17009,7 +17018,7 @@
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
-      <c r="D464" s="17"/>
+      <c r="D464" s="18"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
@@ -17041,7 +17050,7 @@
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
-      <c r="D465" s="17"/>
+      <c r="D465" s="18"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
@@ -17073,7 +17082,7 @@
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
-      <c r="D466" s="17"/>
+      <c r="D466" s="18"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
@@ -17105,7 +17114,7 @@
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
-      <c r="D467" s="17"/>
+      <c r="D467" s="18"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
@@ -17137,7 +17146,7 @@
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
-      <c r="D468" s="17"/>
+      <c r="D468" s="18"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
@@ -17169,7 +17178,7 @@
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
-      <c r="D469" s="17"/>
+      <c r="D469" s="18"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
@@ -17201,7 +17210,7 @@
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
-      <c r="D470" s="17"/>
+      <c r="D470" s="18"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
@@ -17233,7 +17242,7 @@
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
-      <c r="D471" s="17"/>
+      <c r="D471" s="18"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
@@ -17265,7 +17274,7 @@
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
-      <c r="D472" s="17"/>
+      <c r="D472" s="18"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
@@ -17297,7 +17306,7 @@
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
-      <c r="D473" s="17"/>
+      <c r="D473" s="18"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
@@ -17329,7 +17338,7 @@
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
-      <c r="D474" s="17"/>
+      <c r="D474" s="18"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
@@ -17361,7 +17370,7 @@
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
-      <c r="D475" s="17"/>
+      <c r="D475" s="18"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
@@ -17393,7 +17402,7 @@
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
-      <c r="D476" s="17"/>
+      <c r="D476" s="18"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
@@ -17425,7 +17434,7 @@
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
-      <c r="D477" s="17"/>
+      <c r="D477" s="18"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
@@ -17457,7 +17466,7 @@
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
-      <c r="D478" s="17"/>
+      <c r="D478" s="18"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
@@ -17489,7 +17498,7 @@
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
-      <c r="D479" s="17"/>
+      <c r="D479" s="18"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
@@ -17521,7 +17530,7 @@
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
-      <c r="D480" s="17"/>
+      <c r="D480" s="18"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
@@ -17553,7 +17562,7 @@
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
-      <c r="D481" s="17"/>
+      <c r="D481" s="18"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
@@ -17585,7 +17594,7 @@
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
-      <c r="D482" s="17"/>
+      <c r="D482" s="18"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
@@ -17617,7 +17626,7 @@
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
-      <c r="D483" s="17"/>
+      <c r="D483" s="18"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
@@ -17649,7 +17658,7 @@
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
-      <c r="D484" s="17"/>
+      <c r="D484" s="18"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
@@ -17681,7 +17690,7 @@
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
-      <c r="D485" s="17"/>
+      <c r="D485" s="18"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
@@ -17713,7 +17722,7 @@
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
-      <c r="D486" s="17"/>
+      <c r="D486" s="18"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
@@ -17745,7 +17754,7 @@
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
-      <c r="D487" s="17"/>
+      <c r="D487" s="18"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
@@ -17777,7 +17786,7 @@
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
-      <c r="D488" s="17"/>
+      <c r="D488" s="18"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
@@ -17809,7 +17818,7 @@
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
-      <c r="D489" s="17"/>
+      <c r="D489" s="18"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
@@ -17841,7 +17850,7 @@
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
-      <c r="D490" s="17"/>
+      <c r="D490" s="18"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
@@ -17873,7 +17882,7 @@
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
-      <c r="D491" s="17"/>
+      <c r="D491" s="18"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
@@ -17905,7 +17914,7 @@
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
-      <c r="D492" s="17"/>
+      <c r="D492" s="18"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
@@ -17937,7 +17946,7 @@
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
-      <c r="D493" s="17"/>
+      <c r="D493" s="18"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
@@ -17969,7 +17978,7 @@
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
-      <c r="D494" s="17"/>
+      <c r="D494" s="18"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
@@ -18001,7 +18010,7 @@
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
-      <c r="D495" s="17"/>
+      <c r="D495" s="18"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
@@ -18033,7 +18042,7 @@
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
-      <c r="D496" s="17"/>
+      <c r="D496" s="18"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
@@ -18065,7 +18074,7 @@
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
-      <c r="D497" s="17"/>
+      <c r="D497" s="18"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
@@ -18097,7 +18106,7 @@
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
-      <c r="D498" s="17"/>
+      <c r="D498" s="18"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
@@ -18129,7 +18138,7 @@
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
-      <c r="D499" s="17"/>
+      <c r="D499" s="18"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
@@ -18161,7 +18170,7 @@
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
-      <c r="D500" s="17"/>
+      <c r="D500" s="18"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
@@ -18193,7 +18202,7 @@
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
-      <c r="D501" s="17"/>
+      <c r="D501" s="18"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
@@ -18225,7 +18234,7 @@
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
-      <c r="D502" s="17"/>
+      <c r="D502" s="18"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
@@ -18257,7 +18266,7 @@
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
-      <c r="D503" s="17"/>
+      <c r="D503" s="18"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
@@ -18289,7 +18298,7 @@
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
-      <c r="D504" s="17"/>
+      <c r="D504" s="18"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
@@ -18321,7 +18330,7 @@
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
-      <c r="D505" s="17"/>
+      <c r="D505" s="18"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
@@ -18353,7 +18362,7 @@
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
-      <c r="D506" s="17"/>
+      <c r="D506" s="18"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
@@ -18385,7 +18394,7 @@
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
-      <c r="D507" s="17"/>
+      <c r="D507" s="18"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
@@ -18417,7 +18426,7 @@
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
-      <c r="D508" s="17"/>
+      <c r="D508" s="18"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
@@ -18449,7 +18458,7 @@
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
-      <c r="D509" s="17"/>
+      <c r="D509" s="18"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
@@ -18481,7 +18490,7 @@
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
-      <c r="D510" s="17"/>
+      <c r="D510" s="18"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
@@ -18513,7 +18522,7 @@
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
-      <c r="D511" s="17"/>
+      <c r="D511" s="18"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
@@ -18545,7 +18554,7 @@
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
-      <c r="D512" s="17"/>
+      <c r="D512" s="18"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
@@ -18577,7 +18586,7 @@
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
-      <c r="D513" s="17"/>
+      <c r="D513" s="18"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
@@ -18609,7 +18618,7 @@
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
-      <c r="D514" s="17"/>
+      <c r="D514" s="18"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
@@ -18641,7 +18650,7 @@
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
-      <c r="D515" s="17"/>
+      <c r="D515" s="18"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
@@ -18673,7 +18682,7 @@
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
-      <c r="D516" s="17"/>
+      <c r="D516" s="18"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
@@ -18705,7 +18714,7 @@
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
-      <c r="D517" s="17"/>
+      <c r="D517" s="18"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
@@ -18737,7 +18746,7 @@
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
-      <c r="D518" s="17"/>
+      <c r="D518" s="18"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
@@ -18769,7 +18778,7 @@
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
-      <c r="D519" s="17"/>
+      <c r="D519" s="18"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
@@ -18801,7 +18810,7 @@
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
-      <c r="D520" s="17"/>
+      <c r="D520" s="18"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
@@ -18833,7 +18842,7 @@
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
-      <c r="D521" s="17"/>
+      <c r="D521" s="18"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
@@ -18865,7 +18874,7 @@
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
-      <c r="D522" s="17"/>
+      <c r="D522" s="18"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
@@ -18897,7 +18906,7 @@
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
-      <c r="D523" s="17"/>
+      <c r="D523" s="18"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
@@ -18929,7 +18938,7 @@
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
-      <c r="D524" s="17"/>
+      <c r="D524" s="18"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
@@ -18961,7 +18970,7 @@
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
-      <c r="D525" s="17"/>
+      <c r="D525" s="18"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
@@ -18993,7 +19002,7 @@
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
-      <c r="D526" s="17"/>
+      <c r="D526" s="18"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
@@ -19025,7 +19034,7 @@
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
-      <c r="D527" s="17"/>
+      <c r="D527" s="18"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
@@ -19057,7 +19066,7 @@
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
-      <c r="D528" s="17"/>
+      <c r="D528" s="18"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
@@ -19089,7 +19098,7 @@
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
-      <c r="D529" s="17"/>
+      <c r="D529" s="18"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
@@ -19121,7 +19130,7 @@
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
-      <c r="D530" s="17"/>
+      <c r="D530" s="18"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
@@ -19153,7 +19162,7 @@
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
-      <c r="D531" s="17"/>
+      <c r="D531" s="18"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
@@ -19185,7 +19194,7 @@
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
-      <c r="D532" s="17"/>
+      <c r="D532" s="18"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
@@ -19217,7 +19226,7 @@
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
-      <c r="D533" s="17"/>
+      <c r="D533" s="18"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
@@ -19249,7 +19258,7 @@
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
-      <c r="D534" s="17"/>
+      <c r="D534" s="18"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
@@ -19281,7 +19290,7 @@
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
-      <c r="D535" s="17"/>
+      <c r="D535" s="18"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
@@ -19313,7 +19322,7 @@
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
-      <c r="D536" s="17"/>
+      <c r="D536" s="18"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
@@ -19345,7 +19354,7 @@
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
-      <c r="D537" s="17"/>
+      <c r="D537" s="18"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
@@ -19377,7 +19386,7 @@
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
-      <c r="D538" s="17"/>
+      <c r="D538" s="18"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
@@ -19409,7 +19418,7 @@
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
-      <c r="D539" s="17"/>
+      <c r="D539" s="18"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
@@ -19441,7 +19450,7 @@
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
-      <c r="D540" s="17"/>
+      <c r="D540" s="18"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
@@ -19473,7 +19482,7 @@
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
-      <c r="D541" s="17"/>
+      <c r="D541" s="18"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
@@ -19505,7 +19514,7 @@
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
-      <c r="D542" s="17"/>
+      <c r="D542" s="18"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
@@ -19537,7 +19546,7 @@
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
-      <c r="D543" s="17"/>
+      <c r="D543" s="18"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
@@ -19569,7 +19578,7 @@
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
-      <c r="D544" s="17"/>
+      <c r="D544" s="18"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
@@ -19601,7 +19610,7 @@
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
-      <c r="D545" s="17"/>
+      <c r="D545" s="18"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
@@ -19633,7 +19642,7 @@
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
-      <c r="D546" s="17"/>
+      <c r="D546" s="18"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
@@ -19665,7 +19674,7 @@
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
-      <c r="D547" s="17"/>
+      <c r="D547" s="18"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
@@ -19697,7 +19706,7 @@
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
-      <c r="D548" s="17"/>
+      <c r="D548" s="18"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
@@ -19729,7 +19738,7 @@
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
-      <c r="D549" s="17"/>
+      <c r="D549" s="18"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
@@ -19761,7 +19770,7 @@
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
-      <c r="D550" s="17"/>
+      <c r="D550" s="18"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
@@ -19793,7 +19802,7 @@
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
-      <c r="D551" s="17"/>
+      <c r="D551" s="18"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
@@ -19825,7 +19834,7 @@
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
-      <c r="D552" s="17"/>
+      <c r="D552" s="18"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
@@ -19857,7 +19866,7 @@
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
-      <c r="D553" s="17"/>
+      <c r="D553" s="18"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
@@ -19889,7 +19898,7 @@
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
-      <c r="D554" s="17"/>
+      <c r="D554" s="18"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
@@ -19921,7 +19930,7 @@
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
-      <c r="D555" s="17"/>
+      <c r="D555" s="18"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
@@ -19953,7 +19962,7 @@
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
-      <c r="D556" s="17"/>
+      <c r="D556" s="18"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
@@ -19985,7 +19994,7 @@
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
-      <c r="D557" s="17"/>
+      <c r="D557" s="18"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
@@ -20017,7 +20026,7 @@
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
-      <c r="D558" s="17"/>
+      <c r="D558" s="18"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
@@ -20049,7 +20058,7 @@
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
-      <c r="D559" s="17"/>
+      <c r="D559" s="18"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
@@ -20081,7 +20090,7 @@
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
-      <c r="D560" s="17"/>
+      <c r="D560" s="18"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
@@ -20113,7 +20122,7 @@
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
-      <c r="D561" s="17"/>
+      <c r="D561" s="18"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
@@ -20145,7 +20154,7 @@
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
-      <c r="D562" s="17"/>
+      <c r="D562" s="18"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
@@ -20177,7 +20186,7 @@
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
-      <c r="D563" s="17"/>
+      <c r="D563" s="18"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
@@ -20209,7 +20218,7 @@
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
-      <c r="D564" s="17"/>
+      <c r="D564" s="18"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
@@ -20241,7 +20250,7 @@
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
-      <c r="D565" s="17"/>
+      <c r="D565" s="18"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
@@ -20273,7 +20282,7 @@
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
-      <c r="D566" s="17"/>
+      <c r="D566" s="18"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
@@ -20305,7 +20314,7 @@
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
-      <c r="D567" s="17"/>
+      <c r="D567" s="18"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
@@ -20337,7 +20346,7 @@
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
-      <c r="D568" s="17"/>
+      <c r="D568" s="18"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
@@ -20369,7 +20378,7 @@
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
-      <c r="D569" s="17"/>
+      <c r="D569" s="18"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
@@ -20401,7 +20410,7 @@
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
-      <c r="D570" s="17"/>
+      <c r="D570" s="18"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
@@ -20433,7 +20442,7 @@
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
-      <c r="D571" s="17"/>
+      <c r="D571" s="18"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
@@ -20465,7 +20474,7 @@
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
-      <c r="D572" s="17"/>
+      <c r="D572" s="18"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
@@ -20497,7 +20506,7 @@
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
-      <c r="D573" s="17"/>
+      <c r="D573" s="18"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
@@ -20529,7 +20538,7 @@
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
-      <c r="D574" s="17"/>
+      <c r="D574" s="18"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
@@ -20561,7 +20570,7 @@
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
-      <c r="D575" s="17"/>
+      <c r="D575" s="18"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
@@ -20593,7 +20602,7 @@
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
-      <c r="D576" s="17"/>
+      <c r="D576" s="18"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
@@ -20625,7 +20634,7 @@
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
-      <c r="D577" s="17"/>
+      <c r="D577" s="18"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
@@ -20657,7 +20666,7 @@
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
-      <c r="D578" s="17"/>
+      <c r="D578" s="18"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
@@ -20689,7 +20698,7 @@
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
-      <c r="D579" s="17"/>
+      <c r="D579" s="18"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
@@ -20721,7 +20730,7 @@
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
-      <c r="D580" s="17"/>
+      <c r="D580" s="18"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
@@ -20753,7 +20762,7 @@
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
-      <c r="D581" s="17"/>
+      <c r="D581" s="18"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
@@ -20785,7 +20794,7 @@
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
-      <c r="D582" s="17"/>
+      <c r="D582" s="18"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
@@ -20817,7 +20826,7 @@
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
-      <c r="D583" s="17"/>
+      <c r="D583" s="18"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
@@ -20849,7 +20858,7 @@
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
-      <c r="D584" s="17"/>
+      <c r="D584" s="18"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
@@ -20881,7 +20890,7 @@
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
-      <c r="D585" s="17"/>
+      <c r="D585" s="18"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
@@ -20913,7 +20922,7 @@
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
-      <c r="D586" s="17"/>
+      <c r="D586" s="18"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
@@ -20945,7 +20954,7 @@
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
-      <c r="D587" s="17"/>
+      <c r="D587" s="18"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
@@ -20977,7 +20986,7 @@
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
-      <c r="D588" s="17"/>
+      <c r="D588" s="18"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
@@ -21009,7 +21018,7 @@
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
-      <c r="D589" s="17"/>
+      <c r="D589" s="18"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
@@ -21041,7 +21050,7 @@
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
-      <c r="D590" s="17"/>
+      <c r="D590" s="18"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
@@ -21073,7 +21082,7 @@
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
-      <c r="D591" s="17"/>
+      <c r="D591" s="18"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
@@ -21105,7 +21114,7 @@
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
-      <c r="D592" s="17"/>
+      <c r="D592" s="18"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
@@ -21137,7 +21146,7 @@
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
-      <c r="D593" s="17"/>
+      <c r="D593" s="18"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
@@ -21169,7 +21178,7 @@
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
-      <c r="D594" s="17"/>
+      <c r="D594" s="18"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
@@ -21201,7 +21210,7 @@
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
-      <c r="D595" s="17"/>
+      <c r="D595" s="18"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
@@ -21233,7 +21242,7 @@
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
-      <c r="D596" s="17"/>
+      <c r="D596" s="18"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
@@ -21265,7 +21274,7 @@
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
-      <c r="D597" s="17"/>
+      <c r="D597" s="18"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
@@ -21297,7 +21306,7 @@
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
-      <c r="D598" s="17"/>
+      <c r="D598" s="18"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
@@ -21329,7 +21338,7 @@
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
-      <c r="D599" s="17"/>
+      <c r="D599" s="18"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
@@ -21361,7 +21370,7 @@
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
-      <c r="D600" s="17"/>
+      <c r="D600" s="18"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
@@ -21393,7 +21402,7 @@
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
-      <c r="D601" s="17"/>
+      <c r="D601" s="18"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
@@ -21425,7 +21434,7 @@
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
-      <c r="D602" s="17"/>
+      <c r="D602" s="18"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
@@ -21457,7 +21466,7 @@
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
-      <c r="D603" s="17"/>
+      <c r="D603" s="18"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
@@ -21489,7 +21498,7 @@
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
-      <c r="D604" s="17"/>
+      <c r="D604" s="18"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
@@ -21521,7 +21530,7 @@
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
-      <c r="D605" s="17"/>
+      <c r="D605" s="18"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
@@ -21553,7 +21562,7 @@
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
-      <c r="D606" s="17"/>
+      <c r="D606" s="18"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
@@ -21585,7 +21594,7 @@
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
-      <c r="D607" s="17"/>
+      <c r="D607" s="18"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
@@ -21617,7 +21626,7 @@
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
-      <c r="D608" s="17"/>
+      <c r="D608" s="18"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
@@ -21649,7 +21658,7 @@
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
-      <c r="D609" s="17"/>
+      <c r="D609" s="18"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
@@ -21681,7 +21690,7 @@
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
-      <c r="D610" s="17"/>
+      <c r="D610" s="18"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
       <c r="G610" s="4"/>
@@ -21713,7 +21722,7 @@
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
-      <c r="D611" s="17"/>
+      <c r="D611" s="18"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
@@ -21745,7 +21754,7 @@
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
-      <c r="D612" s="17"/>
+      <c r="D612" s="18"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
@@ -21777,7 +21786,7 @@
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
-      <c r="D613" s="17"/>
+      <c r="D613" s="18"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
       <c r="G613" s="4"/>
@@ -21809,7 +21818,7 @@
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
-      <c r="D614" s="17"/>
+      <c r="D614" s="18"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
       <c r="G614" s="4"/>
@@ -21841,7 +21850,7 @@
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
-      <c r="D615" s="17"/>
+      <c r="D615" s="18"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
       <c r="G615" s="4"/>
@@ -21873,7 +21882,7 @@
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
-      <c r="D616" s="17"/>
+      <c r="D616" s="18"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
       <c r="G616" s="4"/>
@@ -21905,7 +21914,7 @@
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
-      <c r="D617" s="17"/>
+      <c r="D617" s="18"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
@@ -21937,7 +21946,7 @@
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
-      <c r="D618" s="17"/>
+      <c r="D618" s="18"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
       <c r="G618" s="4"/>
@@ -21969,7 +21978,7 @@
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
-      <c r="D619" s="17"/>
+      <c r="D619" s="18"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
@@ -22001,7 +22010,7 @@
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
-      <c r="D620" s="17"/>
+      <c r="D620" s="18"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
@@ -22033,7 +22042,7 @@
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
-      <c r="D621" s="17"/>
+      <c r="D621" s="18"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
@@ -22065,7 +22074,7 @@
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
-      <c r="D622" s="17"/>
+      <c r="D622" s="18"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
@@ -22097,7 +22106,7 @@
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
-      <c r="D623" s="17"/>
+      <c r="D623" s="18"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
@@ -22129,7 +22138,7 @@
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
-      <c r="D624" s="17"/>
+      <c r="D624" s="18"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
       <c r="G624" s="4"/>
@@ -22161,7 +22170,7 @@
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
-      <c r="D625" s="17"/>
+      <c r="D625" s="18"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
@@ -22193,7 +22202,7 @@
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
-      <c r="D626" s="17"/>
+      <c r="D626" s="18"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
@@ -22225,7 +22234,7 @@
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
-      <c r="D627" s="17"/>
+      <c r="D627" s="18"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
@@ -22257,7 +22266,7 @@
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
-      <c r="D628" s="17"/>
+      <c r="D628" s="18"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
@@ -22289,7 +22298,7 @@
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
-      <c r="D629" s="17"/>
+      <c r="D629" s="18"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
@@ -22321,7 +22330,7 @@
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
-      <c r="D630" s="17"/>
+      <c r="D630" s="18"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
       <c r="G630" s="4"/>
@@ -22353,7 +22362,7 @@
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
-      <c r="D631" s="17"/>
+      <c r="D631" s="18"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
@@ -22385,7 +22394,7 @@
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
-      <c r="D632" s="17"/>
+      <c r="D632" s="18"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
@@ -22417,7 +22426,7 @@
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
-      <c r="D633" s="17"/>
+      <c r="D633" s="18"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
       <c r="G633" s="4"/>
@@ -22449,7 +22458,7 @@
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
-      <c r="D634" s="17"/>
+      <c r="D634" s="18"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
@@ -22481,7 +22490,7 @@
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
-      <c r="D635" s="17"/>
+      <c r="D635" s="18"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
       <c r="G635" s="4"/>
@@ -22513,7 +22522,7 @@
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
-      <c r="D636" s="17"/>
+      <c r="D636" s="18"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
@@ -22545,7 +22554,7 @@
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
-      <c r="D637" s="17"/>
+      <c r="D637" s="18"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
@@ -22577,7 +22586,7 @@
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
-      <c r="D638" s="17"/>
+      <c r="D638" s="18"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
       <c r="G638" s="4"/>
@@ -22609,7 +22618,7 @@
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
-      <c r="D639" s="17"/>
+      <c r="D639" s="18"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
@@ -22641,7 +22650,7 @@
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
-      <c r="D640" s="17"/>
+      <c r="D640" s="18"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
       <c r="G640" s="4"/>
@@ -22673,7 +22682,7 @@
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
-      <c r="D641" s="17"/>
+      <c r="D641" s="18"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
@@ -22705,7 +22714,7 @@
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
-      <c r="D642" s="17"/>
+      <c r="D642" s="18"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
@@ -22737,7 +22746,7 @@
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
-      <c r="D643" s="17"/>
+      <c r="D643" s="18"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
@@ -22769,7 +22778,7 @@
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
-      <c r="D644" s="17"/>
+      <c r="D644" s="18"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
@@ -22801,7 +22810,7 @@
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
-      <c r="D645" s="17"/>
+      <c r="D645" s="18"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
@@ -22833,7 +22842,7 @@
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
-      <c r="D646" s="17"/>
+      <c r="D646" s="18"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
@@ -22865,7 +22874,7 @@
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
-      <c r="D647" s="17"/>
+      <c r="D647" s="18"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
@@ -22897,7 +22906,7 @@
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
-      <c r="D648" s="17"/>
+      <c r="D648" s="18"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
@@ -22929,7 +22938,7 @@
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
-      <c r="D649" s="17"/>
+      <c r="D649" s="18"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
@@ -22961,7 +22970,7 @@
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
-      <c r="D650" s="17"/>
+      <c r="D650" s="18"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
@@ -22993,7 +23002,7 @@
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
-      <c r="D651" s="17"/>
+      <c r="D651" s="18"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
       <c r="G651" s="4"/>
@@ -23025,7 +23034,7 @@
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
-      <c r="D652" s="17"/>
+      <c r="D652" s="18"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
@@ -23057,7 +23066,7 @@
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
-      <c r="D653" s="17"/>
+      <c r="D653" s="18"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
@@ -23089,7 +23098,7 @@
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
-      <c r="D654" s="17"/>
+      <c r="D654" s="18"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
@@ -23121,7 +23130,7 @@
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
-      <c r="D655" s="17"/>
+      <c r="D655" s="18"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
@@ -23153,7 +23162,7 @@
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
-      <c r="D656" s="17"/>
+      <c r="D656" s="18"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
@@ -23185,7 +23194,7 @@
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
-      <c r="D657" s="17"/>
+      <c r="D657" s="18"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
       <c r="G657" s="4"/>
@@ -23217,7 +23226,7 @@
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
-      <c r="D658" s="17"/>
+      <c r="D658" s="18"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
@@ -23249,7 +23258,7 @@
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
-      <c r="D659" s="17"/>
+      <c r="D659" s="18"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
@@ -23281,7 +23290,7 @@
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
-      <c r="D660" s="17"/>
+      <c r="D660" s="18"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
@@ -23313,7 +23322,7 @@
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
-      <c r="D661" s="17"/>
+      <c r="D661" s="18"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
       <c r="G661" s="4"/>
@@ -23345,7 +23354,7 @@
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
-      <c r="D662" s="17"/>
+      <c r="D662" s="18"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
@@ -23377,7 +23386,7 @@
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
-      <c r="D663" s="17"/>
+      <c r="D663" s="18"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
@@ -23409,7 +23418,7 @@
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
-      <c r="D664" s="17"/>
+      <c r="D664" s="18"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
@@ -23441,7 +23450,7 @@
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
-      <c r="D665" s="17"/>
+      <c r="D665" s="18"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
@@ -23473,7 +23482,7 @@
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
-      <c r="D666" s="17"/>
+      <c r="D666" s="18"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
@@ -23505,7 +23514,7 @@
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
-      <c r="D667" s="17"/>
+      <c r="D667" s="18"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
@@ -23537,7 +23546,7 @@
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
-      <c r="D668" s="17"/>
+      <c r="D668" s="18"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
@@ -23569,7 +23578,7 @@
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
-      <c r="D669" s="17"/>
+      <c r="D669" s="18"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
@@ -23601,7 +23610,7 @@
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
-      <c r="D670" s="17"/>
+      <c r="D670" s="18"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
@@ -23633,7 +23642,7 @@
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
-      <c r="D671" s="17"/>
+      <c r="D671" s="18"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
@@ -23665,7 +23674,7 @@
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
-      <c r="D672" s="17"/>
+      <c r="D672" s="18"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
@@ -23697,7 +23706,7 @@
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
-      <c r="D673" s="17"/>
+      <c r="D673" s="18"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
@@ -23729,7 +23738,7 @@
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
-      <c r="D674" s="17"/>
+      <c r="D674" s="18"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
@@ -23761,7 +23770,7 @@
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
-      <c r="D675" s="17"/>
+      <c r="D675" s="18"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
@@ -23793,7 +23802,7 @@
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
-      <c r="D676" s="17"/>
+      <c r="D676" s="18"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
@@ -23825,7 +23834,7 @@
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
-      <c r="D677" s="17"/>
+      <c r="D677" s="18"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
@@ -23857,7 +23866,7 @@
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
-      <c r="D678" s="17"/>
+      <c r="D678" s="18"/>
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
@@ -23889,7 +23898,7 @@
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
-      <c r="D679" s="17"/>
+      <c r="D679" s="18"/>
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
@@ -23921,7 +23930,7 @@
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
-      <c r="D680" s="17"/>
+      <c r="D680" s="18"/>
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
@@ -23953,7 +23962,7 @@
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
-      <c r="D681" s="17"/>
+      <c r="D681" s="18"/>
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
@@ -23985,7 +23994,7 @@
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
-      <c r="D682" s="17"/>
+      <c r="D682" s="18"/>
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
@@ -24017,7 +24026,7 @@
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
-      <c r="D683" s="17"/>
+      <c r="D683" s="18"/>
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
@@ -24049,7 +24058,7 @@
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
-      <c r="D684" s="17"/>
+      <c r="D684" s="18"/>
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
@@ -24081,7 +24090,7 @@
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
-      <c r="D685" s="17"/>
+      <c r="D685" s="18"/>
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
@@ -24113,7 +24122,7 @@
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
-      <c r="D686" s="17"/>
+      <c r="D686" s="18"/>
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
@@ -24145,7 +24154,7 @@
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
-      <c r="D687" s="17"/>
+      <c r="D687" s="18"/>
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
@@ -24177,7 +24186,7 @@
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
-      <c r="D688" s="17"/>
+      <c r="D688" s="18"/>
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
@@ -24209,7 +24218,7 @@
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
-      <c r="D689" s="17"/>
+      <c r="D689" s="18"/>
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
@@ -24241,7 +24250,7 @@
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
-      <c r="D690" s="17"/>
+      <c r="D690" s="18"/>
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
@@ -24273,7 +24282,7 @@
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
-      <c r="D691" s="17"/>
+      <c r="D691" s="18"/>
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
@@ -24305,7 +24314,7 @@
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
-      <c r="D692" s="17"/>
+      <c r="D692" s="18"/>
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
@@ -24337,7 +24346,7 @@
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
-      <c r="D693" s="17"/>
+      <c r="D693" s="18"/>
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
@@ -24369,7 +24378,7 @@
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
-      <c r="D694" s="17"/>
+      <c r="D694" s="18"/>
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
@@ -24401,7 +24410,7 @@
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
-      <c r="D695" s="17"/>
+      <c r="D695" s="18"/>
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
@@ -24433,7 +24442,7 @@
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
-      <c r="D696" s="17"/>
+      <c r="D696" s="18"/>
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
@@ -24465,7 +24474,7 @@
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
-      <c r="D697" s="17"/>
+      <c r="D697" s="18"/>
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
@@ -24497,7 +24506,7 @@
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
-      <c r="D698" s="17"/>
+      <c r="D698" s="18"/>
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
@@ -24529,7 +24538,7 @@
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
-      <c r="D699" s="17"/>
+      <c r="D699" s="18"/>
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
@@ -24561,7 +24570,7 @@
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
-      <c r="D700" s="17"/>
+      <c r="D700" s="18"/>
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
@@ -24593,7 +24602,7 @@
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
-      <c r="D701" s="17"/>
+      <c r="D701" s="18"/>
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
@@ -24625,7 +24634,7 @@
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
-      <c r="D702" s="17"/>
+      <c r="D702" s="18"/>
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
@@ -24657,7 +24666,7 @@
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
-      <c r="D703" s="17"/>
+      <c r="D703" s="18"/>
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
@@ -24689,7 +24698,7 @@
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
-      <c r="D704" s="17"/>
+      <c r="D704" s="18"/>
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
@@ -24721,7 +24730,7 @@
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
-      <c r="D705" s="17"/>
+      <c r="D705" s="18"/>
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
@@ -24753,7 +24762,7 @@
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
-      <c r="D706" s="17"/>
+      <c r="D706" s="18"/>
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
@@ -24785,7 +24794,7 @@
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
-      <c r="D707" s="17"/>
+      <c r="D707" s="18"/>
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
@@ -24817,7 +24826,7 @@
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
-      <c r="D708" s="17"/>
+      <c r="D708" s="18"/>
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
@@ -24849,7 +24858,7 @@
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
-      <c r="D709" s="17"/>
+      <c r="D709" s="18"/>
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
@@ -24881,7 +24890,7 @@
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
-      <c r="D710" s="17"/>
+      <c r="D710" s="18"/>
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
       <c r="G710" s="4"/>
@@ -24913,7 +24922,7 @@
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
-      <c r="D711" s="17"/>
+      <c r="D711" s="18"/>
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
@@ -24945,7 +24954,7 @@
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
-      <c r="D712" s="17"/>
+      <c r="D712" s="18"/>
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
@@ -24977,7 +24986,7 @@
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
-      <c r="D713" s="17"/>
+      <c r="D713" s="18"/>
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
@@ -25009,7 +25018,7 @@
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
-      <c r="D714" s="17"/>
+      <c r="D714" s="18"/>
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
@@ -25041,7 +25050,7 @@
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
-      <c r="D715" s="17"/>
+      <c r="D715" s="18"/>
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
@@ -25073,7 +25082,7 @@
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
-      <c r="D716" s="17"/>
+      <c r="D716" s="18"/>
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
@@ -25105,7 +25114,7 @@
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
-      <c r="D717" s="17"/>
+      <c r="D717" s="18"/>
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
@@ -25137,7 +25146,7 @@
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
-      <c r="D718" s="17"/>
+      <c r="D718" s="18"/>
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
@@ -25169,7 +25178,7 @@
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
-      <c r="D719" s="17"/>
+      <c r="D719" s="18"/>
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
@@ -25201,7 +25210,7 @@
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
-      <c r="D720" s="17"/>
+      <c r="D720" s="18"/>
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
@@ -25233,7 +25242,7 @@
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
-      <c r="D721" s="17"/>
+      <c r="D721" s="18"/>
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
@@ -25265,7 +25274,7 @@
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
-      <c r="D722" s="17"/>
+      <c r="D722" s="18"/>
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
@@ -25297,7 +25306,7 @@
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
-      <c r="D723" s="17"/>
+      <c r="D723" s="18"/>
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
@@ -25329,7 +25338,7 @@
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
-      <c r="D724" s="17"/>
+      <c r="D724" s="18"/>
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
@@ -25361,7 +25370,7 @@
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
-      <c r="D725" s="17"/>
+      <c r="D725" s="18"/>
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
@@ -25393,7 +25402,7 @@
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
-      <c r="D726" s="17"/>
+      <c r="D726" s="18"/>
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
@@ -25425,7 +25434,7 @@
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
-      <c r="D727" s="17"/>
+      <c r="D727" s="18"/>
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
@@ -25457,7 +25466,7 @@
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
-      <c r="D728" s="17"/>
+      <c r="D728" s="18"/>
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
@@ -25489,7 +25498,7 @@
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
-      <c r="D729" s="17"/>
+      <c r="D729" s="18"/>
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
@@ -25521,7 +25530,7 @@
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
-      <c r="D730" s="17"/>
+      <c r="D730" s="18"/>
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
       <c r="G730" s="4"/>
@@ -25553,7 +25562,7 @@
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
-      <c r="D731" s="17"/>
+      <c r="D731" s="18"/>
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
@@ -25585,7 +25594,7 @@
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
-      <c r="D732" s="17"/>
+      <c r="D732" s="18"/>
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
@@ -25617,7 +25626,7 @@
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
-      <c r="D733" s="17"/>
+      <c r="D733" s="18"/>
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
@@ -25649,7 +25658,7 @@
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
-      <c r="D734" s="17"/>
+      <c r="D734" s="18"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
@@ -25681,7 +25690,7 @@
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
-      <c r="D735" s="17"/>
+      <c r="D735" s="18"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
@@ -25713,7 +25722,7 @@
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
-      <c r="D736" s="17"/>
+      <c r="D736" s="18"/>
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
@@ -25745,7 +25754,7 @@
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
-      <c r="D737" s="17"/>
+      <c r="D737" s="18"/>
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
@@ -25777,7 +25786,7 @@
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
-      <c r="D738" s="17"/>
+      <c r="D738" s="18"/>
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
@@ -25809,7 +25818,7 @@
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
-      <c r="D739" s="17"/>
+      <c r="D739" s="18"/>
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
@@ -25841,7 +25850,7 @@
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
-      <c r="D740" s="17"/>
+      <c r="D740" s="18"/>
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
@@ -25873,7 +25882,7 @@
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
-      <c r="D741" s="17"/>
+      <c r="D741" s="18"/>
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
@@ -25905,7 +25914,7 @@
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
-      <c r="D742" s="17"/>
+      <c r="D742" s="18"/>
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
@@ -25937,7 +25946,7 @@
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
-      <c r="D743" s="17"/>
+      <c r="D743" s="18"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
       <c r="G743" s="4"/>
@@ -25969,7 +25978,7 @@
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
-      <c r="D744" s="17"/>
+      <c r="D744" s="18"/>
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
       <c r="G744" s="4"/>
@@ -26001,7 +26010,7 @@
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
-      <c r="D745" s="17"/>
+      <c r="D745" s="18"/>
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
@@ -26033,7 +26042,7 @@
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
-      <c r="D746" s="17"/>
+      <c r="D746" s="18"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
@@ -26065,7 +26074,7 @@
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
-      <c r="D747" s="17"/>
+      <c r="D747" s="18"/>
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
@@ -26097,7 +26106,7 @@
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
-      <c r="D748" s="17"/>
+      <c r="D748" s="18"/>
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
@@ -26129,7 +26138,7 @@
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
-      <c r="D749" s="17"/>
+      <c r="D749" s="18"/>
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
@@ -26161,7 +26170,7 @@
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
-      <c r="D750" s="17"/>
+      <c r="D750" s="18"/>
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
@@ -26193,7 +26202,7 @@
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
-      <c r="D751" s="17"/>
+      <c r="D751" s="18"/>
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
@@ -26225,7 +26234,7 @@
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
-      <c r="D752" s="17"/>
+      <c r="D752" s="18"/>
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
@@ -26257,7 +26266,7 @@
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
-      <c r="D753" s="17"/>
+      <c r="D753" s="18"/>
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
       <c r="G753" s="4"/>
@@ -26289,7 +26298,7 @@
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
-      <c r="D754" s="17"/>
+      <c r="D754" s="18"/>
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
       <c r="G754" s="4"/>
@@ -26321,7 +26330,7 @@
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
-      <c r="D755" s="17"/>
+      <c r="D755" s="18"/>
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
       <c r="G755" s="4"/>
@@ -26353,7 +26362,7 @@
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
-      <c r="D756" s="17"/>
+      <c r="D756" s="18"/>
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
       <c r="G756" s="4"/>
@@ -26385,7 +26394,7 @@
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
-      <c r="D757" s="17"/>
+      <c r="D757" s="18"/>
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
       <c r="G757" s="4"/>
@@ -26417,7 +26426,7 @@
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
-      <c r="D758" s="17"/>
+      <c r="D758" s="18"/>
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
@@ -26449,7 +26458,7 @@
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
-      <c r="D759" s="17"/>
+      <c r="D759" s="18"/>
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
@@ -26481,7 +26490,7 @@
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
-      <c r="D760" s="17"/>
+      <c r="D760" s="18"/>
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
@@ -26513,7 +26522,7 @@
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
-      <c r="D761" s="17"/>
+      <c r="D761" s="18"/>
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
@@ -26545,7 +26554,7 @@
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
-      <c r="D762" s="17"/>
+      <c r="D762" s="18"/>
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
       <c r="G762" s="4"/>
@@ -26577,7 +26586,7 @@
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
-      <c r="D763" s="17"/>
+      <c r="D763" s="18"/>
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
       <c r="G763" s="4"/>
@@ -26609,7 +26618,7 @@
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
-      <c r="D764" s="17"/>
+      <c r="D764" s="18"/>
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
       <c r="G764" s="4"/>
@@ -26641,7 +26650,7 @@
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
-      <c r="D765" s="17"/>
+      <c r="D765" s="18"/>
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
       <c r="G765" s="4"/>
@@ -26673,7 +26682,7 @@
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
-      <c r="D766" s="17"/>
+      <c r="D766" s="18"/>
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
       <c r="G766" s="4"/>
@@ -26705,7 +26714,7 @@
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
-      <c r="D767" s="17"/>
+      <c r="D767" s="18"/>
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
       <c r="G767" s="4"/>
@@ -26737,7 +26746,7 @@
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
-      <c r="D768" s="17"/>
+      <c r="D768" s="18"/>
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
@@ -26769,7 +26778,7 @@
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
-      <c r="D769" s="17"/>
+      <c r="D769" s="18"/>
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
       <c r="G769" s="4"/>
@@ -26801,7 +26810,7 @@
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
-      <c r="D770" s="17"/>
+      <c r="D770" s="18"/>
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
       <c r="G770" s="4"/>
@@ -26833,7 +26842,7 @@
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
-      <c r="D771" s="17"/>
+      <c r="D771" s="18"/>
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
       <c r="G771" s="4"/>
@@ -26865,7 +26874,7 @@
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
-      <c r="D772" s="17"/>
+      <c r="D772" s="18"/>
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
@@ -26897,7 +26906,7 @@
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
-      <c r="D773" s="17"/>
+      <c r="D773" s="18"/>
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
@@ -26929,7 +26938,7 @@
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
-      <c r="D774" s="17"/>
+      <c r="D774" s="18"/>
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
@@ -26961,7 +26970,7 @@
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
-      <c r="D775" s="17"/>
+      <c r="D775" s="18"/>
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
@@ -26993,7 +27002,7 @@
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
-      <c r="D776" s="17"/>
+      <c r="D776" s="18"/>
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
       <c r="G776" s="4"/>
@@ -27025,7 +27034,7 @@
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
-      <c r="D777" s="17"/>
+      <c r="D777" s="18"/>
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
@@ -27057,7 +27066,7 @@
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
-      <c r="D778" s="17"/>
+      <c r="D778" s="18"/>
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
@@ -27089,7 +27098,7 @@
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
-      <c r="D779" s="17"/>
+      <c r="D779" s="18"/>
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
       <c r="G779" s="4"/>
@@ -27121,7 +27130,7 @@
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
-      <c r="D780" s="17"/>
+      <c r="D780" s="18"/>
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
       <c r="G780" s="4"/>
@@ -27153,7 +27162,7 @@
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
-      <c r="D781" s="17"/>
+      <c r="D781" s="18"/>
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
       <c r="G781" s="4"/>
@@ -27185,7 +27194,7 @@
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
-      <c r="D782" s="17"/>
+      <c r="D782" s="18"/>
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
       <c r="G782" s="4"/>
@@ -27217,7 +27226,7 @@
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
-      <c r="D783" s="17"/>
+      <c r="D783" s="18"/>
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
       <c r="G783" s="4"/>
@@ -27249,7 +27258,7 @@
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
-      <c r="D784" s="17"/>
+      <c r="D784" s="18"/>
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
       <c r="G784" s="4"/>
@@ -27281,7 +27290,7 @@
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
-      <c r="D785" s="17"/>
+      <c r="D785" s="18"/>
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
       <c r="G785" s="4"/>
@@ -27313,7 +27322,7 @@
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
-      <c r="D786" s="17"/>
+      <c r="D786" s="18"/>
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
       <c r="G786" s="4"/>
@@ -27345,7 +27354,7 @@
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
-      <c r="D787" s="17"/>
+      <c r="D787" s="18"/>
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
       <c r="G787" s="4"/>
@@ -27377,7 +27386,7 @@
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
-      <c r="D788" s="17"/>
+      <c r="D788" s="18"/>
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
       <c r="G788" s="4"/>
@@ -27409,7 +27418,7 @@
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
-      <c r="D789" s="17"/>
+      <c r="D789" s="18"/>
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
       <c r="G789" s="4"/>
@@ -27441,7 +27450,7 @@
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
-      <c r="D790" s="17"/>
+      <c r="D790" s="18"/>
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
       <c r="G790" s="4"/>
@@ -27473,7 +27482,7 @@
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
-      <c r="D791" s="17"/>
+      <c r="D791" s="18"/>
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
       <c r="G791" s="4"/>
@@ -27505,7 +27514,7 @@
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
-      <c r="D792" s="17"/>
+      <c r="D792" s="18"/>
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
       <c r="G792" s="4"/>
@@ -27537,7 +27546,7 @@
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
-      <c r="D793" s="17"/>
+      <c r="D793" s="18"/>
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
@@ -27569,7 +27578,7 @@
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
-      <c r="D794" s="17"/>
+      <c r="D794" s="18"/>
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
       <c r="G794" s="4"/>
@@ -27601,7 +27610,7 @@
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
-      <c r="D795" s="17"/>
+      <c r="D795" s="18"/>
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
       <c r="G795" s="4"/>
@@ -27633,7 +27642,7 @@
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
-      <c r="D796" s="17"/>
+      <c r="D796" s="18"/>
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
       <c r="G796" s="4"/>
@@ -27665,7 +27674,7 @@
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
-      <c r="D797" s="17"/>
+      <c r="D797" s="18"/>
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
       <c r="G797" s="4"/>
@@ -27697,7 +27706,7 @@
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
-      <c r="D798" s="17"/>
+      <c r="D798" s="18"/>
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
       <c r="G798" s="4"/>
@@ -27729,7 +27738,7 @@
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
-      <c r="D799" s="17"/>
+      <c r="D799" s="18"/>
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
       <c r="G799" s="4"/>
@@ -27761,7 +27770,7 @@
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
-      <c r="D800" s="17"/>
+      <c r="D800" s="18"/>
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
       <c r="G800" s="4"/>
@@ -27793,7 +27802,7 @@
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
-      <c r="D801" s="17"/>
+      <c r="D801" s="18"/>
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
       <c r="G801" s="4"/>
@@ -27825,7 +27834,7 @@
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
-      <c r="D802" s="17"/>
+      <c r="D802" s="18"/>
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
       <c r="G802" s="4"/>
@@ -27857,7 +27866,7 @@
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
-      <c r="D803" s="17"/>
+      <c r="D803" s="18"/>
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
       <c r="G803" s="4"/>
@@ -27889,7 +27898,7 @@
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
-      <c r="D804" s="17"/>
+      <c r="D804" s="18"/>
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
       <c r="G804" s="4"/>
@@ -27921,7 +27930,7 @@
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
-      <c r="D805" s="17"/>
+      <c r="D805" s="18"/>
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
       <c r="G805" s="4"/>
@@ -27953,7 +27962,7 @@
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
-      <c r="D806" s="17"/>
+      <c r="D806" s="18"/>
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
       <c r="G806" s="4"/>
@@ -27985,7 +27994,7 @@
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
-      <c r="D807" s="17"/>
+      <c r="D807" s="18"/>
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
       <c r="G807" s="4"/>
@@ -28017,7 +28026,7 @@
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
-      <c r="D808" s="17"/>
+      <c r="D808" s="18"/>
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
       <c r="G808" s="4"/>
@@ -28049,7 +28058,7 @@
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
-      <c r="D809" s="17"/>
+      <c r="D809" s="18"/>
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
       <c r="G809" s="4"/>
@@ -28081,7 +28090,7 @@
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
-      <c r="D810" s="17"/>
+      <c r="D810" s="18"/>
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
       <c r="G810" s="4"/>
@@ -28113,7 +28122,7 @@
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
-      <c r="D811" s="17"/>
+      <c r="D811" s="18"/>
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
       <c r="G811" s="4"/>
@@ -28145,7 +28154,7 @@
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
-      <c r="D812" s="17"/>
+      <c r="D812" s="18"/>
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
       <c r="G812" s="4"/>
@@ -28177,7 +28186,7 @@
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
-      <c r="D813" s="17"/>
+      <c r="D813" s="18"/>
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
       <c r="G813" s="4"/>
@@ -28209,7 +28218,7 @@
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
-      <c r="D814" s="17"/>
+      <c r="D814" s="18"/>
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
       <c r="G814" s="4"/>
@@ -28241,7 +28250,7 @@
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
-      <c r="D815" s="17"/>
+      <c r="D815" s="18"/>
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
       <c r="G815" s="4"/>
@@ -28273,7 +28282,7 @@
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
-      <c r="D816" s="17"/>
+      <c r="D816" s="18"/>
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
       <c r="G816" s="4"/>
@@ -28305,7 +28314,7 @@
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
-      <c r="D817" s="17"/>
+      <c r="D817" s="18"/>
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
       <c r="G817" s="4"/>
@@ -28337,7 +28346,7 @@
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
-      <c r="D818" s="17"/>
+      <c r="D818" s="18"/>
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
       <c r="G818" s="4"/>
@@ -28369,7 +28378,7 @@
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
-      <c r="D819" s="17"/>
+      <c r="D819" s="18"/>
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
       <c r="G819" s="4"/>
@@ -28401,7 +28410,7 @@
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
-      <c r="D820" s="17"/>
+      <c r="D820" s="18"/>
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
       <c r="G820" s="4"/>
@@ -28433,7 +28442,7 @@
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
-      <c r="D821" s="17"/>
+      <c r="D821" s="18"/>
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
       <c r="G821" s="4"/>
@@ -28465,7 +28474,7 @@
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
-      <c r="D822" s="17"/>
+      <c r="D822" s="18"/>
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
       <c r="G822" s="4"/>
@@ -28497,7 +28506,7 @@
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
-      <c r="D823" s="17"/>
+      <c r="D823" s="18"/>
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
       <c r="G823" s="4"/>
@@ -28529,7 +28538,7 @@
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
-      <c r="D824" s="17"/>
+      <c r="D824" s="18"/>
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
       <c r="G824" s="4"/>
@@ -28561,7 +28570,7 @@
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
-      <c r="D825" s="17"/>
+      <c r="D825" s="18"/>
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
       <c r="G825" s="4"/>
@@ -28593,7 +28602,7 @@
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
-      <c r="D826" s="17"/>
+      <c r="D826" s="18"/>
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
       <c r="G826" s="4"/>
@@ -28625,7 +28634,7 @@
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
-      <c r="D827" s="17"/>
+      <c r="D827" s="18"/>
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
       <c r="G827" s="4"/>
@@ -28657,7 +28666,7 @@
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
-      <c r="D828" s="17"/>
+      <c r="D828" s="18"/>
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
       <c r="G828" s="4"/>
@@ -28689,7 +28698,7 @@
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
-      <c r="D829" s="17"/>
+      <c r="D829" s="18"/>
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
       <c r="G829" s="4"/>
@@ -28721,7 +28730,7 @@
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
-      <c r="D830" s="17"/>
+      <c r="D830" s="18"/>
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
       <c r="G830" s="4"/>
@@ -28753,7 +28762,7 @@
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
-      <c r="D831" s="17"/>
+      <c r="D831" s="18"/>
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
       <c r="G831" s="4"/>
@@ -28785,7 +28794,7 @@
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
-      <c r="D832" s="17"/>
+      <c r="D832" s="18"/>
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
       <c r="G832" s="4"/>
@@ -28817,7 +28826,7 @@
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
-      <c r="D833" s="17"/>
+      <c r="D833" s="18"/>
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
       <c r="G833" s="4"/>
@@ -28849,7 +28858,7 @@
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
-      <c r="D834" s="17"/>
+      <c r="D834" s="18"/>
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
       <c r="G834" s="4"/>
@@ -28881,7 +28890,7 @@
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
-      <c r="D835" s="17"/>
+      <c r="D835" s="18"/>
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
       <c r="G835" s="4"/>
@@ -28913,7 +28922,7 @@
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
-      <c r="D836" s="17"/>
+      <c r="D836" s="18"/>
       <c r="E836" s="4"/>
       <c r="F836" s="4"/>
       <c r="G836" s="4"/>
@@ -28945,7 +28954,7 @@
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
-      <c r="D837" s="17"/>
+      <c r="D837" s="18"/>
       <c r="E837" s="4"/>
       <c r="F837" s="4"/>
       <c r="G837" s="4"/>
@@ -28977,7 +28986,7 @@
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
-      <c r="D838" s="17"/>
+      <c r="D838" s="18"/>
       <c r="E838" s="4"/>
       <c r="F838" s="4"/>
       <c r="G838" s="4"/>
@@ -29009,7 +29018,7 @@
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
-      <c r="D839" s="17"/>
+      <c r="D839" s="18"/>
       <c r="E839" s="4"/>
       <c r="F839" s="4"/>
       <c r="G839" s="4"/>
@@ -29041,7 +29050,7 @@
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
-      <c r="D840" s="17"/>
+      <c r="D840" s="18"/>
       <c r="E840" s="4"/>
       <c r="F840" s="4"/>
       <c r="G840" s="4"/>
@@ -29073,7 +29082,7 @@
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
-      <c r="D841" s="17"/>
+      <c r="D841" s="18"/>
       <c r="E841" s="4"/>
       <c r="F841" s="4"/>
       <c r="G841" s="4"/>
@@ -29105,7 +29114,7 @@
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
-      <c r="D842" s="17"/>
+      <c r="D842" s="18"/>
       <c r="E842" s="4"/>
       <c r="F842" s="4"/>
       <c r="G842" s="4"/>
@@ -29137,7 +29146,7 @@
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
-      <c r="D843" s="17"/>
+      <c r="D843" s="18"/>
       <c r="E843" s="4"/>
       <c r="F843" s="4"/>
       <c r="G843" s="4"/>
@@ -29169,7 +29178,7 @@
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
-      <c r="D844" s="17"/>
+      <c r="D844" s="18"/>
       <c r="E844" s="4"/>
       <c r="F844" s="4"/>
       <c r="G844" s="4"/>
@@ -29201,7 +29210,7 @@
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
-      <c r="D845" s="17"/>
+      <c r="D845" s="18"/>
       <c r="E845" s="4"/>
       <c r="F845" s="4"/>
       <c r="G845" s="4"/>
@@ -29233,7 +29242,7 @@
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
-      <c r="D846" s="17"/>
+      <c r="D846" s="18"/>
       <c r="E846" s="4"/>
       <c r="F846" s="4"/>
       <c r="G846" s="4"/>
@@ -29265,7 +29274,7 @@
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
-      <c r="D847" s="17"/>
+      <c r="D847" s="18"/>
       <c r="E847" s="4"/>
       <c r="F847" s="4"/>
       <c r="G847" s="4"/>
@@ -29297,7 +29306,7 @@
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
-      <c r="D848" s="17"/>
+      <c r="D848" s="18"/>
       <c r="E848" s="4"/>
       <c r="F848" s="4"/>
       <c r="G848" s="4"/>
@@ -29329,7 +29338,7 @@
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
-      <c r="D849" s="17"/>
+      <c r="D849" s="18"/>
       <c r="E849" s="4"/>
       <c r="F849" s="4"/>
       <c r="G849" s="4"/>
@@ -29361,7 +29370,7 @@
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
-      <c r="D850" s="17"/>
+      <c r="D850" s="18"/>
       <c r="E850" s="4"/>
       <c r="F850" s="4"/>
       <c r="G850" s="4"/>
@@ -29393,7 +29402,7 @@
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
-      <c r="D851" s="17"/>
+      <c r="D851" s="18"/>
       <c r="E851" s="4"/>
       <c r="F851" s="4"/>
       <c r="G851" s="4"/>
@@ -29425,7 +29434,7 @@
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
-      <c r="D852" s="17"/>
+      <c r="D852" s="18"/>
       <c r="E852" s="4"/>
       <c r="F852" s="4"/>
       <c r="G852" s="4"/>
@@ -29457,7 +29466,7 @@
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
-      <c r="D853" s="17"/>
+      <c r="D853" s="18"/>
       <c r="E853" s="4"/>
       <c r="F853" s="4"/>
       <c r="G853" s="4"/>
@@ -29489,7 +29498,7 @@
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
-      <c r="D854" s="17"/>
+      <c r="D854" s="18"/>
       <c r="E854" s="4"/>
       <c r="F854" s="4"/>
       <c r="G854" s="4"/>
@@ -29521,7 +29530,7 @@
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
-      <c r="D855" s="17"/>
+      <c r="D855" s="18"/>
       <c r="E855" s="4"/>
       <c r="F855" s="4"/>
       <c r="G855" s="4"/>
@@ -29553,7 +29562,7 @@
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
-      <c r="D856" s="17"/>
+      <c r="D856" s="18"/>
       <c r="E856" s="4"/>
       <c r="F856" s="4"/>
       <c r="G856" s="4"/>
@@ -29585,7 +29594,7 @@
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
-      <c r="D857" s="17"/>
+      <c r="D857" s="18"/>
       <c r="E857" s="4"/>
       <c r="F857" s="4"/>
       <c r="G857" s="4"/>
@@ -29617,7 +29626,7 @@
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
-      <c r="D858" s="17"/>
+      <c r="D858" s="18"/>
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
       <c r="G858" s="4"/>
@@ -29649,7 +29658,7 @@
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
-      <c r="D859" s="17"/>
+      <c r="D859" s="18"/>
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
       <c r="G859" s="4"/>
@@ -29681,7 +29690,7 @@
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
-      <c r="D860" s="17"/>
+      <c r="D860" s="18"/>
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
       <c r="G860" s="4"/>
@@ -29713,7 +29722,7 @@
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
-      <c r="D861" s="17"/>
+      <c r="D861" s="18"/>
       <c r="E861" s="4"/>
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
@@ -29745,7 +29754,7 @@
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
-      <c r="D862" s="17"/>
+      <c r="D862" s="18"/>
       <c r="E862" s="4"/>
       <c r="F862" s="4"/>
       <c r="G862" s="4"/>
@@ -29777,7 +29786,7 @@
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
-      <c r="D863" s="17"/>
+      <c r="D863" s="18"/>
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
       <c r="G863" s="4"/>
@@ -29809,7 +29818,7 @@
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
-      <c r="D864" s="17"/>
+      <c r="D864" s="18"/>
       <c r="E864" s="4"/>
       <c r="F864" s="4"/>
       <c r="G864" s="4"/>
@@ -29841,7 +29850,7 @@
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
-      <c r="D865" s="17"/>
+      <c r="D865" s="18"/>
       <c r="E865" s="4"/>
       <c r="F865" s="4"/>
       <c r="G865" s="4"/>
@@ -29873,7 +29882,7 @@
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
-      <c r="D866" s="17"/>
+      <c r="D866" s="18"/>
       <c r="E866" s="4"/>
       <c r="F866" s="4"/>
       <c r="G866" s="4"/>
@@ -29905,7 +29914,7 @@
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
-      <c r="D867" s="17"/>
+      <c r="D867" s="18"/>
       <c r="E867" s="4"/>
       <c r="F867" s="4"/>
       <c r="G867" s="4"/>
@@ -29937,7 +29946,7 @@
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
-      <c r="D868" s="17"/>
+      <c r="D868" s="18"/>
       <c r="E868" s="4"/>
       <c r="F868" s="4"/>
       <c r="G868" s="4"/>
@@ -29969,7 +29978,7 @@
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
-      <c r="D869" s="17"/>
+      <c r="D869" s="18"/>
       <c r="E869" s="4"/>
       <c r="F869" s="4"/>
       <c r="G869" s="4"/>
@@ -30001,7 +30010,7 @@
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
-      <c r="D870" s="17"/>
+      <c r="D870" s="18"/>
       <c r="E870" s="4"/>
       <c r="F870" s="4"/>
       <c r="G870" s="4"/>
@@ -30033,7 +30042,7 @@
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
-      <c r="D871" s="17"/>
+      <c r="D871" s="18"/>
       <c r="E871" s="4"/>
       <c r="F871" s="4"/>
       <c r="G871" s="4"/>
@@ -30065,7 +30074,7 @@
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
-      <c r="D872" s="17"/>
+      <c r="D872" s="18"/>
       <c r="E872" s="4"/>
       <c r="F872" s="4"/>
       <c r="G872" s="4"/>
@@ -30097,7 +30106,7 @@
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
-      <c r="D873" s="17"/>
+      <c r="D873" s="18"/>
       <c r="E873" s="4"/>
       <c r="F873" s="4"/>
       <c r="G873" s="4"/>
@@ -30129,7 +30138,7 @@
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
-      <c r="D874" s="17"/>
+      <c r="D874" s="18"/>
       <c r="E874" s="4"/>
       <c r="F874" s="4"/>
       <c r="G874" s="4"/>
@@ -30161,7 +30170,7 @@
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
-      <c r="D875" s="17"/>
+      <c r="D875" s="18"/>
       <c r="E875" s="4"/>
       <c r="F875" s="4"/>
       <c r="G875" s="4"/>
@@ -30193,7 +30202,7 @@
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
-      <c r="D876" s="17"/>
+      <c r="D876" s="18"/>
       <c r="E876" s="4"/>
       <c r="F876" s="4"/>
       <c r="G876" s="4"/>
@@ -30225,7 +30234,7 @@
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
-      <c r="D877" s="17"/>
+      <c r="D877" s="18"/>
       <c r="E877" s="4"/>
       <c r="F877" s="4"/>
       <c r="G877" s="4"/>
@@ -30257,7 +30266,7 @@
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
-      <c r="D878" s="17"/>
+      <c r="D878" s="18"/>
       <c r="E878" s="4"/>
       <c r="F878" s="4"/>
       <c r="G878" s="4"/>
@@ -30289,7 +30298,7 @@
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
-      <c r="D879" s="17"/>
+      <c r="D879" s="18"/>
       <c r="E879" s="4"/>
       <c r="F879" s="4"/>
       <c r="G879" s="4"/>
@@ -30321,7 +30330,7 @@
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
-      <c r="D880" s="17"/>
+      <c r="D880" s="18"/>
       <c r="E880" s="4"/>
       <c r="F880" s="4"/>
       <c r="G880" s="4"/>
@@ -30353,7 +30362,7 @@
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
-      <c r="D881" s="17"/>
+      <c r="D881" s="18"/>
       <c r="E881" s="4"/>
       <c r="F881" s="4"/>
       <c r="G881" s="4"/>
@@ -30385,7 +30394,7 @@
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
-      <c r="D882" s="17"/>
+      <c r="D882" s="18"/>
       <c r="E882" s="4"/>
       <c r="F882" s="4"/>
       <c r="G882" s="4"/>
@@ -30417,7 +30426,7 @@
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
-      <c r="D883" s="17"/>
+      <c r="D883" s="18"/>
       <c r="E883" s="4"/>
       <c r="F883" s="4"/>
       <c r="G883" s="4"/>
@@ -30449,7 +30458,7 @@
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
-      <c r="D884" s="17"/>
+      <c r="D884" s="18"/>
       <c r="E884" s="4"/>
       <c r="F884" s="4"/>
       <c r="G884" s="4"/>
@@ -30481,7 +30490,7 @@
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
-      <c r="D885" s="17"/>
+      <c r="D885" s="18"/>
       <c r="E885" s="4"/>
       <c r="F885" s="4"/>
       <c r="G885" s="4"/>
@@ -30513,7 +30522,7 @@
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
-      <c r="D886" s="17"/>
+      <c r="D886" s="18"/>
       <c r="E886" s="4"/>
       <c r="F886" s="4"/>
       <c r="G886" s="4"/>
@@ -30545,7 +30554,7 @@
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
-      <c r="D887" s="17"/>
+      <c r="D887" s="18"/>
       <c r="E887" s="4"/>
       <c r="F887" s="4"/>
       <c r="G887" s="4"/>
@@ -30577,7 +30586,7 @@
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
-      <c r="D888" s="17"/>
+      <c r="D888" s="18"/>
       <c r="E888" s="4"/>
       <c r="F888" s="4"/>
       <c r="G888" s="4"/>
@@ -30609,7 +30618,7 @@
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
-      <c r="D889" s="17"/>
+      <c r="D889" s="18"/>
       <c r="E889" s="4"/>
       <c r="F889" s="4"/>
       <c r="G889" s="4"/>
@@ -30641,7 +30650,7 @@
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
-      <c r="D890" s="17"/>
+      <c r="D890" s="18"/>
       <c r="E890" s="4"/>
       <c r="F890" s="4"/>
       <c r="G890" s="4"/>
@@ -30673,7 +30682,7 @@
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
-      <c r="D891" s="17"/>
+      <c r="D891" s="18"/>
       <c r="E891" s="4"/>
       <c r="F891" s="4"/>
       <c r="G891" s="4"/>
@@ -30705,7 +30714,7 @@
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
-      <c r="D892" s="17"/>
+      <c r="D892" s="18"/>
       <c r="E892" s="4"/>
       <c r="F892" s="4"/>
       <c r="G892" s="4"/>
@@ -30737,7 +30746,7 @@
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
-      <c r="D893" s="17"/>
+      <c r="D893" s="18"/>
       <c r="E893" s="4"/>
       <c r="F893" s="4"/>
       <c r="G893" s="4"/>
@@ -30769,7 +30778,7 @@
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
-      <c r="D894" s="17"/>
+      <c r="D894" s="18"/>
       <c r="E894" s="4"/>
       <c r="F894" s="4"/>
       <c r="G894" s="4"/>
@@ -30801,7 +30810,7 @@
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
-      <c r="D895" s="17"/>
+      <c r="D895" s="18"/>
       <c r="E895" s="4"/>
       <c r="F895" s="4"/>
       <c r="G895" s="4"/>
@@ -30833,7 +30842,7 @@
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
-      <c r="D896" s="17"/>
+      <c r="D896" s="18"/>
       <c r="E896" s="4"/>
       <c r="F896" s="4"/>
       <c r="G896" s="4"/>
@@ -30865,7 +30874,7 @@
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
-      <c r="D897" s="17"/>
+      <c r="D897" s="18"/>
       <c r="E897" s="4"/>
       <c r="F897" s="4"/>
       <c r="G897" s="4"/>
@@ -30897,7 +30906,7 @@
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
-      <c r="D898" s="17"/>
+      <c r="D898" s="18"/>
       <c r="E898" s="4"/>
       <c r="F898" s="4"/>
       <c r="G898" s="4"/>
@@ -30929,7 +30938,7 @@
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
-      <c r="D899" s="17"/>
+      <c r="D899" s="18"/>
       <c r="E899" s="4"/>
       <c r="F899" s="4"/>
       <c r="G899" s="4"/>
@@ -30961,7 +30970,7 @@
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
-      <c r="D900" s="17"/>
+      <c r="D900" s="18"/>
       <c r="E900" s="4"/>
       <c r="F900" s="4"/>
       <c r="G900" s="4"/>
@@ -30993,7 +31002,7 @@
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
-      <c r="D901" s="17"/>
+      <c r="D901" s="18"/>
       <c r="E901" s="4"/>
       <c r="F901" s="4"/>
       <c r="G901" s="4"/>
@@ -31025,7 +31034,7 @@
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
-      <c r="D902" s="17"/>
+      <c r="D902" s="18"/>
       <c r="E902" s="4"/>
       <c r="F902" s="4"/>
       <c r="G902" s="4"/>
@@ -31057,7 +31066,7 @@
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
-      <c r="D903" s="17"/>
+      <c r="D903" s="18"/>
       <c r="E903" s="4"/>
       <c r="F903" s="4"/>
       <c r="G903" s="4"/>
@@ -31089,7 +31098,7 @@
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
-      <c r="D904" s="17"/>
+      <c r="D904" s="18"/>
       <c r="E904" s="4"/>
       <c r="F904" s="4"/>
       <c r="G904" s="4"/>
@@ -31121,7 +31130,7 @@
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
-      <c r="D905" s="17"/>
+      <c r="D905" s="18"/>
       <c r="E905" s="4"/>
       <c r="F905" s="4"/>
       <c r="G905" s="4"/>
@@ -31153,7 +31162,7 @@
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
-      <c r="D906" s="17"/>
+      <c r="D906" s="18"/>
       <c r="E906" s="4"/>
       <c r="F906" s="4"/>
       <c r="G906" s="4"/>
@@ -31185,7 +31194,7 @@
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
-      <c r="D907" s="17"/>
+      <c r="D907" s="18"/>
       <c r="E907" s="4"/>
       <c r="F907" s="4"/>
       <c r="G907" s="4"/>
@@ -31217,7 +31226,7 @@
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
-      <c r="D908" s="17"/>
+      <c r="D908" s="18"/>
       <c r="E908" s="4"/>
       <c r="F908" s="4"/>
       <c r="G908" s="4"/>
@@ -31249,7 +31258,7 @@
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
-      <c r="D909" s="17"/>
+      <c r="D909" s="18"/>
       <c r="E909" s="4"/>
       <c r="F909" s="4"/>
       <c r="G909" s="4"/>
@@ -31281,7 +31290,7 @@
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
-      <c r="D910" s="17"/>
+      <c r="D910" s="18"/>
       <c r="E910" s="4"/>
       <c r="F910" s="4"/>
       <c r="G910" s="4"/>
@@ -31313,7 +31322,7 @@
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
-      <c r="D911" s="17"/>
+      <c r="D911" s="18"/>
       <c r="E911" s="4"/>
       <c r="F911" s="4"/>
       <c r="G911" s="4"/>
@@ -31345,7 +31354,7 @@
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
-      <c r="D912" s="17"/>
+      <c r="D912" s="18"/>
       <c r="E912" s="4"/>
       <c r="F912" s="4"/>
       <c r="G912" s="4"/>
@@ -31377,7 +31386,7 @@
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
-      <c r="D913" s="17"/>
+      <c r="D913" s="18"/>
       <c r="E913" s="4"/>
       <c r="F913" s="4"/>
       <c r="G913" s="4"/>
@@ -31409,7 +31418,7 @@
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
-      <c r="D914" s="17"/>
+      <c r="D914" s="18"/>
       <c r="E914" s="4"/>
       <c r="F914" s="4"/>
       <c r="G914" s="4"/>
@@ -31441,7 +31450,7 @@
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
-      <c r="D915" s="17"/>
+      <c r="D915" s="18"/>
       <c r="E915" s="4"/>
       <c r="F915" s="4"/>
       <c r="G915" s="4"/>
@@ -31473,7 +31482,7 @@
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
-      <c r="D916" s="17"/>
+      <c r="D916" s="18"/>
       <c r="E916" s="4"/>
       <c r="F916" s="4"/>
       <c r="G916" s="4"/>
@@ -31505,7 +31514,7 @@
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
-      <c r="D917" s="17"/>
+      <c r="D917" s="18"/>
       <c r="E917" s="4"/>
       <c r="F917" s="4"/>
       <c r="G917" s="4"/>
@@ -31537,7 +31546,7 @@
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
-      <c r="D918" s="17"/>
+      <c r="D918" s="18"/>
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
       <c r="G918" s="4"/>
@@ -31569,7 +31578,7 @@
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
-      <c r="D919" s="17"/>
+      <c r="D919" s="18"/>
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
       <c r="G919" s="4"/>
@@ -31601,7 +31610,7 @@
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
-      <c r="D920" s="17"/>
+      <c r="D920" s="18"/>
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
       <c r="G920" s="4"/>
@@ -31633,7 +31642,7 @@
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
-      <c r="D921" s="17"/>
+      <c r="D921" s="18"/>
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
       <c r="G921" s="4"/>
@@ -31665,7 +31674,7 @@
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
-      <c r="D922" s="17"/>
+      <c r="D922" s="18"/>
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
       <c r="G922" s="4"/>
@@ -31697,7 +31706,7 @@
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
-      <c r="D923" s="17"/>
+      <c r="D923" s="18"/>
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
       <c r="G923" s="4"/>
@@ -31729,7 +31738,7 @@
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
-      <c r="D924" s="17"/>
+      <c r="D924" s="18"/>
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
       <c r="G924" s="4"/>
@@ -31761,7 +31770,7 @@
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
-      <c r="D925" s="17"/>
+      <c r="D925" s="18"/>
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
       <c r="G925" s="4"/>
@@ -31793,7 +31802,7 @@
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
-      <c r="D926" s="17"/>
+      <c r="D926" s="18"/>
       <c r="E926" s="4"/>
       <c r="F926" s="4"/>
       <c r="G926" s="4"/>
@@ -31825,7 +31834,7 @@
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
-      <c r="D927" s="17"/>
+      <c r="D927" s="18"/>
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
       <c r="G927" s="4"/>
@@ -31857,7 +31866,7 @@
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
-      <c r="D928" s="17"/>
+      <c r="D928" s="18"/>
       <c r="E928" s="4"/>
       <c r="F928" s="4"/>
       <c r="G928" s="4"/>
@@ -31889,7 +31898,7 @@
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
-      <c r="D929" s="17"/>
+      <c r="D929" s="18"/>
       <c r="E929" s="4"/>
       <c r="F929" s="4"/>
       <c r="G929" s="4"/>
@@ -31921,7 +31930,7 @@
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
-      <c r="D930" s="17"/>
+      <c r="D930" s="18"/>
       <c r="E930" s="4"/>
       <c r="F930" s="4"/>
       <c r="G930" s="4"/>
@@ -31953,7 +31962,7 @@
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
-      <c r="D931" s="17"/>
+      <c r="D931" s="18"/>
       <c r="E931" s="4"/>
       <c r="F931" s="4"/>
       <c r="G931" s="4"/>
@@ -31985,7 +31994,7 @@
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
-      <c r="D932" s="17"/>
+      <c r="D932" s="18"/>
       <c r="E932" s="4"/>
       <c r="F932" s="4"/>
       <c r="G932" s="4"/>
@@ -32017,7 +32026,7 @@
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
-      <c r="D933" s="17"/>
+      <c r="D933" s="18"/>
       <c r="E933" s="4"/>
       <c r="F933" s="4"/>
       <c r="G933" s="4"/>
@@ -32049,7 +32058,7 @@
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
-      <c r="D934" s="17"/>
+      <c r="D934" s="18"/>
       <c r="E934" s="4"/>
       <c r="F934" s="4"/>
       <c r="G934" s="4"/>
@@ -32081,7 +32090,7 @@
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
-      <c r="D935" s="17"/>
+      <c r="D935" s="18"/>
       <c r="E935" s="4"/>
       <c r="F935" s="4"/>
       <c r="G935" s="4"/>
@@ -32113,7 +32122,7 @@
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
-      <c r="D936" s="17"/>
+      <c r="D936" s="18"/>
       <c r="E936" s="4"/>
       <c r="F936" s="4"/>
       <c r="G936" s="4"/>
@@ -32145,7 +32154,7 @@
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
-      <c r="D937" s="17"/>
+      <c r="D937" s="18"/>
       <c r="E937" s="4"/>
       <c r="F937" s="4"/>
       <c r="G937" s="4"/>
@@ -32177,7 +32186,7 @@
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
-      <c r="D938" s="17"/>
+      <c r="D938" s="18"/>
       <c r="E938" s="4"/>
       <c r="F938" s="4"/>
       <c r="G938" s="4"/>
@@ -32209,7 +32218,7 @@
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
-      <c r="D939" s="17"/>
+      <c r="D939" s="18"/>
       <c r="E939" s="4"/>
       <c r="F939" s="4"/>
       <c r="G939" s="4"/>
@@ -32241,7 +32250,7 @@
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
-      <c r="D940" s="17"/>
+      <c r="D940" s="18"/>
       <c r="E940" s="4"/>
       <c r="F940" s="4"/>
       <c r="G940" s="4"/>
@@ -32273,7 +32282,7 @@
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
-      <c r="D941" s="17"/>
+      <c r="D941" s="18"/>
       <c r="E941" s="4"/>
       <c r="F941" s="4"/>
       <c r="G941" s="4"/>
@@ -32305,7 +32314,7 @@
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
-      <c r="D942" s="17"/>
+      <c r="D942" s="18"/>
       <c r="E942" s="4"/>
       <c r="F942" s="4"/>
       <c r="G942" s="4"/>
@@ -32337,7 +32346,7 @@
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
-      <c r="D943" s="17"/>
+      <c r="D943" s="18"/>
       <c r="E943" s="4"/>
       <c r="F943" s="4"/>
       <c r="G943" s="4"/>
@@ -32369,7 +32378,7 @@
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
-      <c r="D944" s="17"/>
+      <c r="D944" s="18"/>
       <c r="E944" s="4"/>
       <c r="F944" s="4"/>
       <c r="G944" s="4"/>
@@ -32401,7 +32410,7 @@
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
-      <c r="D945" s="17"/>
+      <c r="D945" s="18"/>
       <c r="E945" s="4"/>
       <c r="F945" s="4"/>
       <c r="G945" s="4"/>
@@ -32433,7 +32442,7 @@
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
-      <c r="D946" s="17"/>
+      <c r="D946" s="18"/>
       <c r="E946" s="4"/>
       <c r="F946" s="4"/>
       <c r="G946" s="4"/>
@@ -32465,7 +32474,7 @@
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
-      <c r="D947" s="17"/>
+      <c r="D947" s="18"/>
       <c r="E947" s="4"/>
       <c r="F947" s="4"/>
       <c r="G947" s="4"/>
@@ -32497,7 +32506,7 @@
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
-      <c r="D948" s="17"/>
+      <c r="D948" s="18"/>
       <c r="E948" s="4"/>
       <c r="F948" s="4"/>
       <c r="G948" s="4"/>
@@ -32529,7 +32538,7 @@
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
-      <c r="D949" s="17"/>
+      <c r="D949" s="18"/>
       <c r="E949" s="4"/>
       <c r="F949" s="4"/>
       <c r="G949" s="4"/>
@@ -32561,7 +32570,7 @@
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
-      <c r="D950" s="17"/>
+      <c r="D950" s="18"/>
       <c r="E950" s="4"/>
       <c r="F950" s="4"/>
       <c r="G950" s="4"/>
@@ -32593,7 +32602,7 @@
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
-      <c r="D951" s="17"/>
+      <c r="D951" s="18"/>
       <c r="E951" s="4"/>
       <c r="F951" s="4"/>
       <c r="G951" s="4"/>
@@ -32625,7 +32634,7 @@
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
-      <c r="D952" s="17"/>
+      <c r="D952" s="18"/>
       <c r="E952" s="4"/>
       <c r="F952" s="4"/>
       <c r="G952" s="4"/>
@@ -32657,7 +32666,7 @@
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
-      <c r="D953" s="17"/>
+      <c r="D953" s="18"/>
       <c r="E953" s="4"/>
       <c r="F953" s="4"/>
       <c r="G953" s="4"/>
@@ -32689,7 +32698,7 @@
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
-      <c r="D954" s="17"/>
+      <c r="D954" s="18"/>
       <c r="E954" s="4"/>
       <c r="F954" s="4"/>
       <c r="G954" s="4"/>
@@ -32721,7 +32730,7 @@
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
-      <c r="D955" s="17"/>
+      <c r="D955" s="18"/>
       <c r="E955" s="4"/>
       <c r="F955" s="4"/>
       <c r="G955" s="4"/>
@@ -32753,7 +32762,7 @@
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
-      <c r="D956" s="17"/>
+      <c r="D956" s="18"/>
       <c r="E956" s="4"/>
       <c r="F956" s="4"/>
       <c r="G956" s="4"/>
@@ -32785,7 +32794,7 @@
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
-      <c r="D957" s="17"/>
+      <c r="D957" s="18"/>
       <c r="E957" s="4"/>
       <c r="F957" s="4"/>
       <c r="G957" s="4"/>
@@ -32817,7 +32826,7 @@
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
-      <c r="D958" s="17"/>
+      <c r="D958" s="18"/>
       <c r="E958" s="4"/>
       <c r="F958" s="4"/>
       <c r="G958" s="4"/>
@@ -32849,7 +32858,7 @@
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
-      <c r="D959" s="17"/>
+      <c r="D959" s="18"/>
       <c r="E959" s="4"/>
       <c r="F959" s="4"/>
       <c r="G959" s="4"/>
@@ -32881,7 +32890,7 @@
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
-      <c r="D960" s="17"/>
+      <c r="D960" s="18"/>
       <c r="E960" s="4"/>
       <c r="F960" s="4"/>
       <c r="G960" s="4"/>
@@ -32913,7 +32922,7 @@
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
-      <c r="D961" s="17"/>
+      <c r="D961" s="18"/>
       <c r="E961" s="4"/>
       <c r="F961" s="4"/>
       <c r="G961" s="4"/>
@@ -32945,7 +32954,7 @@
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
-      <c r="D962" s="17"/>
+      <c r="D962" s="18"/>
       <c r="E962" s="4"/>
       <c r="F962" s="4"/>
       <c r="G962" s="4"/>
@@ -32977,7 +32986,7 @@
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
-      <c r="D963" s="17"/>
+      <c r="D963" s="18"/>
       <c r="E963" s="4"/>
       <c r="F963" s="4"/>
       <c r="G963" s="4"/>
@@ -33009,7 +33018,7 @@
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
-      <c r="D964" s="17"/>
+      <c r="D964" s="18"/>
       <c r="E964" s="4"/>
       <c r="F964" s="4"/>
       <c r="G964" s="4"/>
@@ -33041,7 +33050,7 @@
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
-      <c r="D965" s="17"/>
+      <c r="D965" s="18"/>
       <c r="E965" s="4"/>
       <c r="F965" s="4"/>
       <c r="G965" s="4"/>
@@ -33073,7 +33082,7 @@
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
-      <c r="D966" s="17"/>
+      <c r="D966" s="18"/>
       <c r="E966" s="4"/>
       <c r="F966" s="4"/>
       <c r="G966" s="4"/>
@@ -33105,7 +33114,7 @@
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
-      <c r="D967" s="17"/>
+      <c r="D967" s="18"/>
       <c r="E967" s="4"/>
       <c r="F967" s="4"/>
       <c r="G967" s="4"/>
@@ -33137,7 +33146,7 @@
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
-      <c r="D968" s="17"/>
+      <c r="D968" s="18"/>
       <c r="E968" s="4"/>
       <c r="F968" s="4"/>
       <c r="G968" s="4"/>
@@ -33169,7 +33178,7 @@
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
-      <c r="D969" s="17"/>
+      <c r="D969" s="18"/>
       <c r="E969" s="4"/>
       <c r="F969" s="4"/>
       <c r="G969" s="4"/>
@@ -33201,7 +33210,7 @@
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
-      <c r="D970" s="17"/>
+      <c r="D970" s="18"/>
       <c r="E970" s="4"/>
       <c r="F970" s="4"/>
       <c r="G970" s="4"/>
@@ -33233,7 +33242,7 @@
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
-      <c r="D971" s="17"/>
+      <c r="D971" s="18"/>
       <c r="E971" s="4"/>
       <c r="F971" s="4"/>
       <c r="G971" s="4"/>
@@ -33265,7 +33274,7 @@
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
-      <c r="D972" s="17"/>
+      <c r="D972" s="18"/>
       <c r="E972" s="4"/>
       <c r="F972" s="4"/>
       <c r="G972" s="4"/>
@@ -33297,7 +33306,7 @@
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
-      <c r="D973" s="17"/>
+      <c r="D973" s="18"/>
       <c r="E973" s="4"/>
       <c r="F973" s="4"/>
       <c r="G973" s="4"/>
@@ -33329,7 +33338,7 @@
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
-      <c r="D974" s="17"/>
+      <c r="D974" s="18"/>
       <c r="E974" s="4"/>
       <c r="F974" s="4"/>
       <c r="G974" s="4"/>
@@ -33361,7 +33370,7 @@
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
-      <c r="D975" s="17"/>
+      <c r="D975" s="18"/>
       <c r="E975" s="4"/>
       <c r="F975" s="4"/>
       <c r="G975" s="4"/>
@@ -33393,7 +33402,7 @@
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
-      <c r="D976" s="17"/>
+      <c r="D976" s="18"/>
       <c r="E976" s="4"/>
       <c r="F976" s="4"/>
       <c r="G976" s="4"/>
@@ -33425,7 +33434,7 @@
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
-      <c r="D977" s="17"/>
+      <c r="D977" s="18"/>
       <c r="E977" s="4"/>
       <c r="F977" s="4"/>
       <c r="G977" s="4"/>
@@ -33457,7 +33466,7 @@
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
-      <c r="D978" s="17"/>
+      <c r="D978" s="18"/>
       <c r="E978" s="4"/>
       <c r="F978" s="4"/>
       <c r="G978" s="4"/>
@@ -33489,7 +33498,7 @@
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
-      <c r="D979" s="17"/>
+      <c r="D979" s="18"/>
       <c r="E979" s="4"/>
       <c r="F979" s="4"/>
       <c r="G979" s="4"/>
@@ -33521,7 +33530,7 @@
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
-      <c r="D980" s="17"/>
+      <c r="D980" s="18"/>
       <c r="E980" s="4"/>
       <c r="F980" s="4"/>
       <c r="G980" s="4"/>
@@ -33553,7 +33562,7 @@
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
-      <c r="D981" s="17"/>
+      <c r="D981" s="18"/>
       <c r="E981" s="4"/>
       <c r="F981" s="4"/>
       <c r="G981" s="4"/>
@@ -33585,7 +33594,7 @@
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
-      <c r="D982" s="17"/>
+      <c r="D982" s="18"/>
       <c r="E982" s="4"/>
       <c r="F982" s="4"/>
       <c r="G982" s="4"/>
@@ -33617,7 +33626,7 @@
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
-      <c r="D983" s="17"/>
+      <c r="D983" s="18"/>
       <c r="E983" s="4"/>
       <c r="F983" s="4"/>
       <c r="G983" s="4"/>
@@ -33649,7 +33658,7 @@
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
-      <c r="D984" s="17"/>
+      <c r="D984" s="18"/>
       <c r="E984" s="4"/>
       <c r="F984" s="4"/>
       <c r="G984" s="4"/>
@@ -33681,7 +33690,7 @@
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
-      <c r="D985" s="17"/>
+      <c r="D985" s="18"/>
       <c r="E985" s="4"/>
       <c r="F985" s="4"/>
       <c r="G985" s="4"/>
@@ -33713,7 +33722,7 @@
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
-      <c r="D986" s="17"/>
+      <c r="D986" s="18"/>
       <c r="E986" s="4"/>
       <c r="F986" s="4"/>
       <c r="G986" s="4"/>
@@ -33745,7 +33754,7 @@
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
-      <c r="D987" s="17"/>
+      <c r="D987" s="18"/>
       <c r="E987" s="4"/>
       <c r="F987" s="4"/>
       <c r="G987" s="4"/>
@@ -33777,7 +33786,7 @@
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
-      <c r="D988" s="17"/>
+      <c r="D988" s="18"/>
       <c r="E988" s="4"/>
       <c r="F988" s="4"/>
       <c r="G988" s="4"/>
@@ -33809,7 +33818,7 @@
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
-      <c r="D989" s="17"/>
+      <c r="D989" s="18"/>
       <c r="E989" s="4"/>
       <c r="F989" s="4"/>
       <c r="G989" s="4"/>
@@ -33841,7 +33850,7 @@
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
-      <c r="D990" s="17"/>
+      <c r="D990" s="18"/>
       <c r="E990" s="4"/>
       <c r="F990" s="4"/>
       <c r="G990" s="4"/>
@@ -33873,7 +33882,7 @@
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
-      <c r="D991" s="17"/>
+      <c r="D991" s="18"/>
       <c r="E991" s="4"/>
       <c r="F991" s="4"/>
       <c r="G991" s="4"/>
@@ -33905,7 +33914,7 @@
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
-      <c r="D992" s="17"/>
+      <c r="D992" s="18"/>
       <c r="E992" s="4"/>
       <c r="F992" s="4"/>
       <c r="G992" s="4"/>
@@ -33937,7 +33946,7 @@
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
-      <c r="D993" s="17"/>
+      <c r="D993" s="18"/>
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
       <c r="G993" s="4"/>
@@ -33969,7 +33978,7 @@
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
-      <c r="D994" s="17"/>
+      <c r="D994" s="18"/>
       <c r="E994" s="4"/>
       <c r="F994" s="4"/>
       <c r="G994" s="4"/>
@@ -34001,7 +34010,7 @@
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
-      <c r="D995" s="17"/>
+      <c r="D995" s="18"/>
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
       <c r="G995" s="4"/>
@@ -34033,7 +34042,7 @@
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
-      <c r="D996" s="17"/>
+      <c r="D996" s="18"/>
       <c r="E996" s="4"/>
       <c r="F996" s="4"/>
       <c r="G996" s="4"/>
@@ -34065,7 +34074,7 @@
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
-      <c r="D997" s="17"/>
+      <c r="D997" s="18"/>
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
       <c r="G997" s="4"/>
@@ -34097,7 +34106,7 @@
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
-      <c r="D998" s="17"/>
+      <c r="D998" s="18"/>
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
       <c r="G998" s="4"/>
@@ -34129,7 +34138,7 @@
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
-      <c r="D999" s="17"/>
+      <c r="D999" s="18"/>
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
       <c r="G999" s="4"/>
@@ -34161,7 +34170,7 @@
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
-      <c r="D1000" s="17"/>
+      <c r="D1000" s="18"/>
       <c r="E1000" s="4"/>
       <c r="F1000" s="4"/>
       <c r="G1000" s="4"/>
@@ -34193,7 +34202,7 @@
       <c r="A1001" s="4"/>
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
-      <c r="D1001" s="17"/>
+      <c r="D1001" s="18"/>
       <c r="E1001" s="4"/>
       <c r="F1001" s="4"/>
       <c r="G1001" s="4"/>
@@ -34225,7 +34234,7 @@
       <c r="A1002" s="4"/>
       <c r="B1002" s="4"/>
       <c r="C1002" s="4"/>
-      <c r="D1002" s="17"/>
+      <c r="D1002" s="18"/>
       <c r="E1002" s="4"/>
       <c r="F1002" s="4"/>
       <c r="G1002" s="4"/>

--- a/src/test/resources/dataFiles/SepsisPatientData.xlsx
+++ b/src/test/resources/dataFiles/SepsisPatientData.xlsx
@@ -166,7 +166,7 @@
     <t>Robert</t>
   </si>
   <si>
-    <t>12/31/2023</t>
+    <t>01/15/2024</t>
   </si>
   <si>
     <t>mrob@gmail.com</t>
@@ -1782,7 +1782,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="7">
-        <v>719645955</v>
+        <v>7196459</v>
       </c>
       <c r="F3" t="s" s="6">
         <v>32</v>
